--- a/docs/apf-manutencao.xlsx
+++ b/docs/apf-manutencao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adelaide Antunes\Documents\TCC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adelaide Antunes\Documents\TCC\Doggis\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFF897B-90B4-4D66-8EA7-080B27C5B2E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFF9125-9A3F-4E0E-B5CB-ADA09F3FD73C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="4200" windowWidth="21600" windowHeight="11385" tabRatio="734" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="734" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contagem" sheetId="1" r:id="rId1"/>
@@ -977,9 +977,6 @@
     <t>Serviço</t>
   </si>
   <si>
-    <t>Alergia do Pet</t>
-  </si>
-  <si>
     <t>Alterar Serviço</t>
   </si>
   <si>
@@ -1104,6 +1101,9 @@
   </si>
   <si>
     <t>Relatório de Avaliações de um Profissional</t>
+  </si>
+  <si>
+    <t>Venda</t>
   </si>
 </sst>
 </file>
@@ -2167,32 +2167,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2202,16 +2192,32 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2234,16 +2240,19 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2261,13 +2270,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2279,14 +2288,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2296,9 +2299,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4402,7 +4402,7 @@
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B11" sqref="B11"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7:N7"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12:V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -4424,1147 +4424,1173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="143"/>
+      <c r="P1" s="143"/>
+      <c r="Q1" s="143"/>
+      <c r="R1" s="143"/>
+      <c r="S1" s="143"/>
+      <c r="T1" s="143"/>
+      <c r="U1" s="143"/>
+      <c r="V1" s="143"/>
     </row>
     <row r="2" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="132"/>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="132"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="132"/>
-      <c r="S2" s="132"/>
-      <c r="T2" s="132"/>
-      <c r="U2" s="132"/>
-      <c r="V2" s="132"/>
+      <c r="A2" s="143"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="143"/>
+      <c r="P2" s="143"/>
+      <c r="Q2" s="143"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="143"/>
+      <c r="T2" s="143"/>
+      <c r="U2" s="143"/>
+      <c r="V2" s="143"/>
     </row>
     <row r="3" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="132"/>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="132"/>
-      <c r="M3" s="132"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="132"/>
-      <c r="P3" s="132"/>
-      <c r="Q3" s="132"/>
-      <c r="R3" s="132"/>
-      <c r="S3" s="132"/>
-      <c r="T3" s="132"/>
-      <c r="U3" s="132"/>
-      <c r="V3" s="132"/>
+      <c r="A3" s="143"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="143"/>
+      <c r="O3" s="143"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="143"/>
+      <c r="S3" s="143"/>
+      <c r="T3" s="143"/>
+      <c r="U3" s="143"/>
+      <c r="V3" s="143"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="133"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="134" t="s">
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="139" t="s">
         <v>170</v>
       </c>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="134"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="134"/>
-      <c r="M4" s="134"/>
-      <c r="N4" s="134"/>
-      <c r="O4" s="135" t="s">
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="139"/>
+      <c r="N4" s="139"/>
+      <c r="O4" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="135"/>
-      <c r="Q4" s="136">
+      <c r="P4" s="144"/>
+      <c r="Q4" s="142">
         <f>Funções!L4</f>
         <v>220</v>
       </c>
-      <c r="R4" s="136"/>
-      <c r="S4" s="136"/>
-      <c r="T4" s="136"/>
-      <c r="U4" s="136"/>
-      <c r="V4" s="136"/>
+      <c r="R4" s="142"/>
+      <c r="S4" s="142"/>
+      <c r="T4" s="142"/>
+      <c r="U4" s="142"/>
+      <c r="V4" s="142"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="133" t="s">
+      <c r="A5" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="133"/>
-      <c r="C5" s="133"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="134" t="s">
+      <c r="B5" s="135"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="139" t="s">
         <v>171</v>
       </c>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="134"/>
-      <c r="L5" s="134"/>
-      <c r="M5" s="134"/>
-      <c r="N5" s="134"/>
-      <c r="O5" s="137" t="s">
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="139"/>
+      <c r="K5" s="139"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="139"/>
+      <c r="N5" s="139"/>
+      <c r="O5" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="P5" s="137"/>
-      <c r="Q5" s="136">
+      <c r="P5" s="140"/>
+      <c r="Q5" s="142">
         <f>Funções!L5</f>
         <v>220</v>
       </c>
-      <c r="R5" s="136"/>
-      <c r="S5" s="136"/>
-      <c r="T5" s="136"/>
-      <c r="U5" s="136"/>
-      <c r="V5" s="136"/>
+      <c r="R5" s="142"/>
+      <c r="S5" s="142"/>
+      <c r="T5" s="142"/>
+      <c r="U5" s="142"/>
+      <c r="V5" s="142"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="133" t="s">
+      <c r="A6" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="133"/>
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="138" t="s">
+      <c r="B6" s="135"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="138"/>
-      <c r="K6" s="138"/>
-      <c r="L6" s="138"/>
-      <c r="M6" s="138"/>
-      <c r="N6" s="138"/>
-      <c r="O6" s="137" t="s">
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="136"/>
+      <c r="N6" s="136"/>
+      <c r="O6" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="137"/>
-      <c r="Q6" s="136">
+      <c r="P6" s="140"/>
+      <c r="Q6" s="142">
         <f>Funções!L6</f>
         <v>220</v>
       </c>
-      <c r="R6" s="136"/>
-      <c r="S6" s="136"/>
-      <c r="T6" s="136"/>
-      <c r="U6" s="136"/>
-      <c r="V6" s="136"/>
+      <c r="R6" s="142"/>
+      <c r="S6" s="142"/>
+      <c r="T6" s="142"/>
+      <c r="U6" s="142"/>
+      <c r="V6" s="142"/>
     </row>
     <row r="7" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="133" t="s">
+      <c r="A7" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="133"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="134" t="s">
+      <c r="B7" s="135"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="139" t="s">
         <v>173</v>
       </c>
-      <c r="G7" s="134"/>
-      <c r="H7" s="134"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="134"/>
-      <c r="K7" s="134"/>
-      <c r="L7" s="134"/>
-      <c r="M7" s="134"/>
-      <c r="N7" s="134"/>
-      <c r="O7" s="137" t="s">
+      <c r="G7" s="139"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="139"/>
+      <c r="N7" s="139"/>
+      <c r="O7" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="P7" s="137"/>
-      <c r="Q7" s="137"/>
-      <c r="R7" s="139"/>
-      <c r="S7" s="139"/>
-      <c r="T7" s="139"/>
-      <c r="U7" s="139"/>
-      <c r="V7" s="139"/>
+      <c r="P7" s="140"/>
+      <c r="Q7" s="140"/>
+      <c r="R7" s="141"/>
+      <c r="S7" s="141"/>
+      <c r="T7" s="141"/>
+      <c r="U7" s="141"/>
+      <c r="V7" s="141"/>
     </row>
     <row r="8" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="133" t="s">
+      <c r="A8" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="133"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="134" t="s">
+      <c r="B8" s="135"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="139" t="s">
         <v>171</v>
       </c>
-      <c r="G8" s="134"/>
-      <c r="H8" s="134"/>
-      <c r="I8" s="134"/>
-      <c r="J8" s="134"/>
-      <c r="K8" s="134"/>
-      <c r="L8" s="134"/>
-      <c r="M8" s="134"/>
-      <c r="N8" s="134"/>
-      <c r="O8" s="137" t="s">
+      <c r="G8" s="139"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="139"/>
+      <c r="J8" s="139"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="139"/>
+      <c r="N8" s="139"/>
+      <c r="O8" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="137"/>
-      <c r="Q8" s="137"/>
-      <c r="R8" s="139"/>
-      <c r="S8" s="139"/>
-      <c r="T8" s="139"/>
-      <c r="U8" s="139"/>
-      <c r="V8" s="139"/>
+      <c r="P8" s="140"/>
+      <c r="Q8" s="140"/>
+      <c r="R8" s="141"/>
+      <c r="S8" s="141"/>
+      <c r="T8" s="141"/>
+      <c r="U8" s="141"/>
+      <c r="V8" s="141"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="133" t="s">
+      <c r="A9" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="133"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="138" t="s">
+      <c r="B9" s="135"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="136" t="s">
         <v>172</v>
       </c>
-      <c r="G9" s="138"/>
-      <c r="H9" s="138"/>
-      <c r="I9" s="138"/>
-      <c r="J9" s="138"/>
-      <c r="K9" s="138"/>
-      <c r="L9" s="138"/>
-      <c r="M9" s="138"/>
-      <c r="N9" s="138"/>
-      <c r="O9" s="140" t="s">
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="136"/>
+      <c r="K9" s="136"/>
+      <c r="L9" s="136"/>
+      <c r="M9" s="136"/>
+      <c r="N9" s="136"/>
+      <c r="O9" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="P9" s="140"/>
-      <c r="Q9" s="140"/>
-      <c r="R9" s="141"/>
-      <c r="S9" s="141"/>
-      <c r="T9" s="141"/>
-      <c r="U9" s="141"/>
-      <c r="V9" s="141"/>
+      <c r="P9" s="137"/>
+      <c r="Q9" s="137"/>
+      <c r="R9" s="138"/>
+      <c r="S9" s="138"/>
+      <c r="T9" s="138"/>
+      <c r="U9" s="138"/>
+      <c r="V9" s="138"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="133" t="s">
+      <c r="A10" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="133"/>
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="138" t="s">
+      <c r="B10" s="135"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="135"/>
+      <c r="F10" s="136" t="s">
         <v>172</v>
       </c>
-      <c r="G10" s="138"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138"/>
-      <c r="J10" s="138"/>
-      <c r="K10" s="138"/>
-      <c r="L10" s="138"/>
-      <c r="M10" s="138"/>
-      <c r="N10" s="138"/>
-      <c r="O10" s="140" t="s">
+      <c r="G10" s="136"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="136"/>
+      <c r="K10" s="136"/>
+      <c r="L10" s="136"/>
+      <c r="M10" s="136"/>
+      <c r="N10" s="136"/>
+      <c r="O10" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="P10" s="140"/>
-      <c r="Q10" s="140"/>
-      <c r="R10" s="141"/>
-      <c r="S10" s="141"/>
-      <c r="T10" s="141"/>
-      <c r="U10" s="141"/>
-      <c r="V10" s="141"/>
+      <c r="P10" s="137"/>
+      <c r="Q10" s="137"/>
+      <c r="R10" s="138"/>
+      <c r="S10" s="138"/>
+      <c r="T10" s="138"/>
+      <c r="U10" s="138"/>
+      <c r="V10" s="138"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="142" t="s">
+      <c r="A11" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="142"/>
-      <c r="C11" s="142"/>
-      <c r="D11" s="142"/>
-      <c r="E11" s="142"/>
-      <c r="F11" s="142"/>
-      <c r="G11" s="142"/>
-      <c r="H11" s="142"/>
-      <c r="I11" s="142"/>
-      <c r="J11" s="142"/>
-      <c r="K11" s="142"/>
-      <c r="L11" s="142"/>
-      <c r="M11" s="142"/>
-      <c r="N11" s="142"/>
-      <c r="O11" s="142"/>
-      <c r="P11" s="142"/>
-      <c r="Q11" s="142"/>
-      <c r="R11" s="142"/>
-      <c r="S11" s="142"/>
-      <c r="T11" s="142"/>
-      <c r="U11" s="142"/>
-      <c r="V11" s="142"/>
+      <c r="B11" s="133"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
+      <c r="K11" s="133"/>
+      <c r="L11" s="133"/>
+      <c r="M11" s="133"/>
+      <c r="N11" s="133"/>
+      <c r="O11" s="133"/>
+      <c r="P11" s="133"/>
+      <c r="Q11" s="133"/>
+      <c r="R11" s="133"/>
+      <c r="S11" s="133"/>
+      <c r="T11" s="133"/>
+      <c r="U11" s="133"/>
+      <c r="V11" s="133"/>
     </row>
     <row r="12" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="143"/>
-      <c r="B12" s="143"/>
-      <c r="C12" s="143"/>
-      <c r="D12" s="143"/>
-      <c r="E12" s="143"/>
-      <c r="F12" s="143"/>
-      <c r="G12" s="143"/>
-      <c r="H12" s="143"/>
-      <c r="I12" s="143"/>
-      <c r="J12" s="143"/>
-      <c r="K12" s="143"/>
-      <c r="L12" s="143"/>
-      <c r="M12" s="143"/>
-      <c r="N12" s="143"/>
-      <c r="O12" s="143"/>
-      <c r="P12" s="143"/>
-      <c r="Q12" s="143"/>
-      <c r="R12" s="143"/>
-      <c r="S12" s="143"/>
-      <c r="T12" s="143"/>
-      <c r="U12" s="143"/>
-      <c r="V12" s="143"/>
+      <c r="A12" s="132"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="132"/>
+      <c r="K12" s="132"/>
+      <c r="L12" s="132"/>
+      <c r="M12" s="132"/>
+      <c r="N12" s="132"/>
+      <c r="O12" s="132"/>
+      <c r="P12" s="132"/>
+      <c r="Q12" s="132"/>
+      <c r="R12" s="132"/>
+      <c r="S12" s="132"/>
+      <c r="T12" s="132"/>
+      <c r="U12" s="132"/>
+      <c r="V12" s="132"/>
     </row>
     <row r="13" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="143"/>
-      <c r="B13" s="143"/>
-      <c r="C13" s="143"/>
-      <c r="D13" s="143"/>
-      <c r="E13" s="143"/>
-      <c r="F13" s="143"/>
-      <c r="G13" s="143"/>
-      <c r="H13" s="143"/>
-      <c r="I13" s="143"/>
-      <c r="J13" s="143"/>
-      <c r="K13" s="143"/>
-      <c r="L13" s="143"/>
-      <c r="M13" s="143"/>
-      <c r="N13" s="143"/>
-      <c r="O13" s="143"/>
-      <c r="P13" s="143"/>
-      <c r="Q13" s="143"/>
-      <c r="R13" s="143"/>
-      <c r="S13" s="143"/>
-      <c r="T13" s="143"/>
-      <c r="U13" s="143"/>
-      <c r="V13" s="143"/>
+      <c r="A13" s="132"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="132"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="132"/>
+      <c r="O13" s="132"/>
+      <c r="P13" s="132"/>
+      <c r="Q13" s="132"/>
+      <c r="R13" s="132"/>
+      <c r="S13" s="132"/>
+      <c r="T13" s="132"/>
+      <c r="U13" s="132"/>
+      <c r="V13" s="132"/>
     </row>
     <row r="14" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="143"/>
-      <c r="B14" s="143"/>
-      <c r="C14" s="143"/>
-      <c r="D14" s="143"/>
-      <c r="E14" s="143"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="143"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="143"/>
-      <c r="J14" s="143"/>
-      <c r="K14" s="143"/>
-      <c r="L14" s="143"/>
-      <c r="M14" s="143"/>
-      <c r="N14" s="143"/>
-      <c r="O14" s="143"/>
-      <c r="P14" s="143"/>
-      <c r="Q14" s="143"/>
-      <c r="R14" s="143"/>
-      <c r="S14" s="143"/>
-      <c r="T14" s="143"/>
-      <c r="U14" s="143"/>
-      <c r="V14" s="143"/>
+      <c r="A14" s="132"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="132"/>
+      <c r="K14" s="132"/>
+      <c r="L14" s="132"/>
+      <c r="M14" s="132"/>
+      <c r="N14" s="132"/>
+      <c r="O14" s="132"/>
+      <c r="P14" s="132"/>
+      <c r="Q14" s="132"/>
+      <c r="R14" s="132"/>
+      <c r="S14" s="132"/>
+      <c r="T14" s="132"/>
+      <c r="U14" s="132"/>
+      <c r="V14" s="132"/>
     </row>
     <row r="15" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="143"/>
-      <c r="B15" s="143"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="143"/>
-      <c r="J15" s="143"/>
-      <c r="K15" s="143"/>
-      <c r="L15" s="143"/>
-      <c r="M15" s="143"/>
-      <c r="N15" s="143"/>
-      <c r="O15" s="143"/>
-      <c r="P15" s="143"/>
-      <c r="Q15" s="143"/>
-      <c r="R15" s="143"/>
-      <c r="S15" s="143"/>
-      <c r="T15" s="143"/>
-      <c r="U15" s="143"/>
-      <c r="V15" s="143"/>
+      <c r="A15" s="132"/>
+      <c r="B15" s="132"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="132"/>
+      <c r="Q15" s="132"/>
+      <c r="R15" s="132"/>
+      <c r="S15" s="132"/>
+      <c r="T15" s="132"/>
+      <c r="U15" s="132"/>
+      <c r="V15" s="132"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="142" t="s">
+      <c r="A16" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="142"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="142"/>
-      <c r="M16" s="142"/>
-      <c r="N16" s="142"/>
-      <c r="O16" s="142"/>
-      <c r="P16" s="142"/>
-      <c r="Q16" s="142"/>
-      <c r="R16" s="142"/>
-      <c r="S16" s="142"/>
-      <c r="T16" s="142"/>
-      <c r="U16" s="142"/>
-      <c r="V16" s="142"/>
+      <c r="B16" s="133"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="133"/>
+      <c r="L16" s="133"/>
+      <c r="M16" s="133"/>
+      <c r="N16" s="133"/>
+      <c r="O16" s="133"/>
+      <c r="P16" s="133"/>
+      <c r="Q16" s="133"/>
+      <c r="R16" s="133"/>
+      <c r="S16" s="133"/>
+      <c r="T16" s="133"/>
+      <c r="U16" s="133"/>
+      <c r="V16" s="133"/>
     </row>
     <row r="17" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="143"/>
-      <c r="B17" s="143"/>
-      <c r="C17" s="143"/>
-      <c r="D17" s="143"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="143"/>
-      <c r="H17" s="143"/>
-      <c r="I17" s="143"/>
-      <c r="J17" s="143"/>
-      <c r="K17" s="143"/>
-      <c r="L17" s="143"/>
-      <c r="M17" s="143"/>
-      <c r="N17" s="143"/>
-      <c r="O17" s="143"/>
-      <c r="P17" s="143"/>
-      <c r="Q17" s="143"/>
-      <c r="R17" s="143"/>
-      <c r="S17" s="143"/>
-      <c r="T17" s="143"/>
-      <c r="U17" s="143"/>
-      <c r="V17" s="143"/>
+      <c r="A17" s="132"/>
+      <c r="B17" s="132"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="132"/>
+      <c r="H17" s="132"/>
+      <c r="I17" s="132"/>
+      <c r="J17" s="132"/>
+      <c r="K17" s="132"/>
+      <c r="L17" s="132"/>
+      <c r="M17" s="132"/>
+      <c r="N17" s="132"/>
+      <c r="O17" s="132"/>
+      <c r="P17" s="132"/>
+      <c r="Q17" s="132"/>
+      <c r="R17" s="132"/>
+      <c r="S17" s="132"/>
+      <c r="T17" s="132"/>
+      <c r="U17" s="132"/>
+      <c r="V17" s="132"/>
     </row>
     <row r="18" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="143"/>
-      <c r="B18" s="143"/>
-      <c r="C18" s="143"/>
-      <c r="D18" s="143"/>
-      <c r="E18" s="143"/>
-      <c r="F18" s="143"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="143"/>
-      <c r="I18" s="143"/>
-      <c r="J18" s="143"/>
-      <c r="K18" s="143"/>
-      <c r="L18" s="143"/>
-      <c r="M18" s="143"/>
-      <c r="N18" s="143"/>
-      <c r="O18" s="143"/>
-      <c r="P18" s="143"/>
-      <c r="Q18" s="143"/>
-      <c r="R18" s="143"/>
-      <c r="S18" s="143"/>
-      <c r="T18" s="143"/>
-      <c r="U18" s="143"/>
-      <c r="V18" s="143"/>
+      <c r="A18" s="132"/>
+      <c r="B18" s="132"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="132"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="132"/>
+      <c r="K18" s="132"/>
+      <c r="L18" s="132"/>
+      <c r="M18" s="132"/>
+      <c r="N18" s="132"/>
+      <c r="O18" s="132"/>
+      <c r="P18" s="132"/>
+      <c r="Q18" s="132"/>
+      <c r="R18" s="132"/>
+      <c r="S18" s="132"/>
+      <c r="T18" s="132"/>
+      <c r="U18" s="132"/>
+      <c r="V18" s="132"/>
     </row>
     <row r="19" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="143"/>
-      <c r="B19" s="143"/>
-      <c r="C19" s="143"/>
-      <c r="D19" s="143"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="143"/>
-      <c r="K19" s="143"/>
-      <c r="L19" s="143"/>
-      <c r="M19" s="143"/>
-      <c r="N19" s="143"/>
-      <c r="O19" s="143"/>
-      <c r="P19" s="143"/>
-      <c r="Q19" s="143"/>
-      <c r="R19" s="143"/>
-      <c r="S19" s="143"/>
-      <c r="T19" s="143"/>
-      <c r="U19" s="143"/>
-      <c r="V19" s="143"/>
+      <c r="A19" s="132"/>
+      <c r="B19" s="132"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="132"/>
+      <c r="K19" s="132"/>
+      <c r="L19" s="132"/>
+      <c r="M19" s="132"/>
+      <c r="N19" s="132"/>
+      <c r="O19" s="132"/>
+      <c r="P19" s="132"/>
+      <c r="Q19" s="132"/>
+      <c r="R19" s="132"/>
+      <c r="S19" s="132"/>
+      <c r="T19" s="132"/>
+      <c r="U19" s="132"/>
+      <c r="V19" s="132"/>
     </row>
     <row r="20" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="143"/>
-      <c r="B20" s="143"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="143"/>
-      <c r="K20" s="143"/>
-      <c r="L20" s="143"/>
-      <c r="M20" s="143"/>
-      <c r="N20" s="143"/>
-      <c r="O20" s="143"/>
-      <c r="P20" s="143"/>
-      <c r="Q20" s="143"/>
-      <c r="R20" s="143"/>
-      <c r="S20" s="143"/>
-      <c r="T20" s="143"/>
-      <c r="U20" s="143"/>
-      <c r="V20" s="143"/>
+      <c r="A20" s="132"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="132"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="132"/>
+      <c r="K20" s="132"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="132"/>
+      <c r="N20" s="132"/>
+      <c r="O20" s="132"/>
+      <c r="P20" s="132"/>
+      <c r="Q20" s="132"/>
+      <c r="R20" s="132"/>
+      <c r="S20" s="132"/>
+      <c r="T20" s="132"/>
+      <c r="U20" s="132"/>
+      <c r="V20" s="132"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" s="142" t="s">
+      <c r="A21" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="142"/>
-      <c r="C21" s="142"/>
-      <c r="D21" s="142"/>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="142"/>
-      <c r="I21" s="142"/>
-      <c r="J21" s="142"/>
-      <c r="K21" s="142"/>
-      <c r="L21" s="142"/>
-      <c r="M21" s="142"/>
-      <c r="N21" s="142"/>
-      <c r="O21" s="142"/>
-      <c r="P21" s="142"/>
-      <c r="Q21" s="142"/>
-      <c r="R21" s="142"/>
-      <c r="S21" s="142"/>
-      <c r="T21" s="142"/>
-      <c r="U21" s="142"/>
-      <c r="V21" s="142"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="133"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="133"/>
+      <c r="J21" s="133"/>
+      <c r="K21" s="133"/>
+      <c r="L21" s="133"/>
+      <c r="M21" s="133"/>
+      <c r="N21" s="133"/>
+      <c r="O21" s="133"/>
+      <c r="P21" s="133"/>
+      <c r="Q21" s="133"/>
+      <c r="R21" s="133"/>
+      <c r="S21" s="133"/>
+      <c r="T21" s="133"/>
+      <c r="U21" s="133"/>
+      <c r="V21" s="133"/>
     </row>
     <row r="22" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="144"/>
-      <c r="B22" s="144"/>
-      <c r="C22" s="144"/>
-      <c r="D22" s="144"/>
-      <c r="E22" s="144"/>
-      <c r="F22" s="144"/>
-      <c r="G22" s="144"/>
-      <c r="H22" s="144"/>
-      <c r="I22" s="144"/>
-      <c r="J22" s="144"/>
-      <c r="K22" s="144"/>
-      <c r="L22" s="144"/>
-      <c r="M22" s="144"/>
-      <c r="N22" s="144"/>
-      <c r="O22" s="144"/>
-      <c r="P22" s="144"/>
-      <c r="Q22" s="144"/>
-      <c r="R22" s="144"/>
-      <c r="S22" s="144"/>
-      <c r="T22" s="144"/>
-      <c r="U22" s="144"/>
-      <c r="V22" s="144"/>
+      <c r="A22" s="134"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="134"/>
+      <c r="J22" s="134"/>
+      <c r="K22" s="134"/>
+      <c r="L22" s="134"/>
+      <c r="M22" s="134"/>
+      <c r="N22" s="134"/>
+      <c r="O22" s="134"/>
+      <c r="P22" s="134"/>
+      <c r="Q22" s="134"/>
+      <c r="R22" s="134"/>
+      <c r="S22" s="134"/>
+      <c r="T22" s="134"/>
+      <c r="U22" s="134"/>
+      <c r="V22" s="134"/>
     </row>
     <row r="23" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="144"/>
-      <c r="B23" s="144"/>
-      <c r="C23" s="144"/>
-      <c r="D23" s="144"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="144"/>
-      <c r="G23" s="144"/>
-      <c r="H23" s="144"/>
-      <c r="I23" s="144"/>
-      <c r="J23" s="144"/>
-      <c r="K23" s="144"/>
-      <c r="L23" s="144"/>
-      <c r="M23" s="144"/>
-      <c r="N23" s="144"/>
-      <c r="O23" s="144"/>
-      <c r="P23" s="144"/>
-      <c r="Q23" s="144"/>
-      <c r="R23" s="144"/>
-      <c r="S23" s="144"/>
-      <c r="T23" s="144"/>
-      <c r="U23" s="144"/>
-      <c r="V23" s="144"/>
+      <c r="A23" s="134"/>
+      <c r="B23" s="134"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="134"/>
+      <c r="G23" s="134"/>
+      <c r="H23" s="134"/>
+      <c r="I23" s="134"/>
+      <c r="J23" s="134"/>
+      <c r="K23" s="134"/>
+      <c r="L23" s="134"/>
+      <c r="M23" s="134"/>
+      <c r="N23" s="134"/>
+      <c r="O23" s="134"/>
+      <c r="P23" s="134"/>
+      <c r="Q23" s="134"/>
+      <c r="R23" s="134"/>
+      <c r="S23" s="134"/>
+      <c r="T23" s="134"/>
+      <c r="U23" s="134"/>
+      <c r="V23" s="134"/>
     </row>
     <row r="24" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="144"/>
-      <c r="B24" s="144"/>
-      <c r="C24" s="144"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="144"/>
-      <c r="F24" s="144"/>
-      <c r="G24" s="144"/>
-      <c r="H24" s="144"/>
-      <c r="I24" s="144"/>
-      <c r="J24" s="144"/>
-      <c r="K24" s="144"/>
-      <c r="L24" s="144"/>
-      <c r="M24" s="144"/>
-      <c r="N24" s="144"/>
-      <c r="O24" s="144"/>
-      <c r="P24" s="144"/>
-      <c r="Q24" s="144"/>
-      <c r="R24" s="144"/>
-      <c r="S24" s="144"/>
-      <c r="T24" s="144"/>
-      <c r="U24" s="144"/>
-      <c r="V24" s="144"/>
+      <c r="A24" s="134"/>
+      <c r="B24" s="134"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="134"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="134"/>
+      <c r="G24" s="134"/>
+      <c r="H24" s="134"/>
+      <c r="I24" s="134"/>
+      <c r="J24" s="134"/>
+      <c r="K24" s="134"/>
+      <c r="L24" s="134"/>
+      <c r="M24" s="134"/>
+      <c r="N24" s="134"/>
+      <c r="O24" s="134"/>
+      <c r="P24" s="134"/>
+      <c r="Q24" s="134"/>
+      <c r="R24" s="134"/>
+      <c r="S24" s="134"/>
+      <c r="T24" s="134"/>
+      <c r="U24" s="134"/>
+      <c r="V24" s="134"/>
     </row>
     <row r="25" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="144"/>
-      <c r="B25" s="144"/>
-      <c r="C25" s="144"/>
-      <c r="D25" s="144"/>
-      <c r="E25" s="144"/>
-      <c r="F25" s="144"/>
-      <c r="G25" s="144"/>
-      <c r="H25" s="144"/>
-      <c r="I25" s="144"/>
-      <c r="J25" s="144"/>
-      <c r="K25" s="144"/>
-      <c r="L25" s="144"/>
-      <c r="M25" s="144"/>
-      <c r="N25" s="144"/>
-      <c r="O25" s="144"/>
-      <c r="P25" s="144"/>
-      <c r="Q25" s="144"/>
-      <c r="R25" s="144"/>
-      <c r="S25" s="144"/>
-      <c r="T25" s="144"/>
-      <c r="U25" s="144"/>
-      <c r="V25" s="144"/>
+      <c r="A25" s="134"/>
+      <c r="B25" s="134"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="134"/>
+      <c r="H25" s="134"/>
+      <c r="I25" s="134"/>
+      <c r="J25" s="134"/>
+      <c r="K25" s="134"/>
+      <c r="L25" s="134"/>
+      <c r="M25" s="134"/>
+      <c r="N25" s="134"/>
+      <c r="O25" s="134"/>
+      <c r="P25" s="134"/>
+      <c r="Q25" s="134"/>
+      <c r="R25" s="134"/>
+      <c r="S25" s="134"/>
+      <c r="T25" s="134"/>
+      <c r="U25" s="134"/>
+      <c r="V25" s="134"/>
     </row>
     <row r="26" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="144"/>
-      <c r="B26" s="144"/>
-      <c r="C26" s="144"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="144"/>
-      <c r="H26" s="144"/>
-      <c r="I26" s="144"/>
-      <c r="J26" s="144"/>
-      <c r="K26" s="144"/>
-      <c r="L26" s="144"/>
-      <c r="M26" s="144"/>
-      <c r="N26" s="144"/>
-      <c r="O26" s="144"/>
-      <c r="P26" s="144"/>
-      <c r="Q26" s="144"/>
-      <c r="R26" s="144"/>
-      <c r="S26" s="144"/>
-      <c r="T26" s="144"/>
-      <c r="U26" s="144"/>
-      <c r="V26" s="144"/>
+      <c r="A26" s="134"/>
+      <c r="B26" s="134"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="134"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="134"/>
+      <c r="G26" s="134"/>
+      <c r="H26" s="134"/>
+      <c r="I26" s="134"/>
+      <c r="J26" s="134"/>
+      <c r="K26" s="134"/>
+      <c r="L26" s="134"/>
+      <c r="M26" s="134"/>
+      <c r="N26" s="134"/>
+      <c r="O26" s="134"/>
+      <c r="P26" s="134"/>
+      <c r="Q26" s="134"/>
+      <c r="R26" s="134"/>
+      <c r="S26" s="134"/>
+      <c r="T26" s="134"/>
+      <c r="U26" s="134"/>
+      <c r="V26" s="134"/>
     </row>
     <row r="27" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="144"/>
-      <c r="B27" s="144"/>
-      <c r="C27" s="144"/>
-      <c r="D27" s="144"/>
-      <c r="E27" s="144"/>
-      <c r="F27" s="144"/>
-      <c r="G27" s="144"/>
-      <c r="H27" s="144"/>
-      <c r="I27" s="144"/>
-      <c r="J27" s="144"/>
-      <c r="K27" s="144"/>
-      <c r="L27" s="144"/>
-      <c r="M27" s="144"/>
-      <c r="N27" s="144"/>
-      <c r="O27" s="144"/>
-      <c r="P27" s="144"/>
-      <c r="Q27" s="144"/>
-      <c r="R27" s="144"/>
-      <c r="S27" s="144"/>
-      <c r="T27" s="144"/>
-      <c r="U27" s="144"/>
-      <c r="V27" s="144"/>
+      <c r="A27" s="134"/>
+      <c r="B27" s="134"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="134"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="134"/>
+      <c r="H27" s="134"/>
+      <c r="I27" s="134"/>
+      <c r="J27" s="134"/>
+      <c r="K27" s="134"/>
+      <c r="L27" s="134"/>
+      <c r="M27" s="134"/>
+      <c r="N27" s="134"/>
+      <c r="O27" s="134"/>
+      <c r="P27" s="134"/>
+      <c r="Q27" s="134"/>
+      <c r="R27" s="134"/>
+      <c r="S27" s="134"/>
+      <c r="T27" s="134"/>
+      <c r="U27" s="134"/>
+      <c r="V27" s="134"/>
     </row>
     <row r="28" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="144"/>
-      <c r="B28" s="144"/>
-      <c r="C28" s="144"/>
-      <c r="D28" s="144"/>
-      <c r="E28" s="144"/>
-      <c r="F28" s="144"/>
-      <c r="G28" s="144"/>
-      <c r="H28" s="144"/>
-      <c r="I28" s="144"/>
-      <c r="J28" s="144"/>
-      <c r="K28" s="144"/>
-      <c r="L28" s="144"/>
-      <c r="M28" s="144"/>
-      <c r="N28" s="144"/>
-      <c r="O28" s="144"/>
-      <c r="P28" s="144"/>
-      <c r="Q28" s="144"/>
-      <c r="R28" s="144"/>
-      <c r="S28" s="144"/>
-      <c r="T28" s="144"/>
-      <c r="U28" s="144"/>
-      <c r="V28" s="144"/>
+      <c r="A28" s="134"/>
+      <c r="B28" s="134"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="134"/>
+      <c r="E28" s="134"/>
+      <c r="F28" s="134"/>
+      <c r="G28" s="134"/>
+      <c r="H28" s="134"/>
+      <c r="I28" s="134"/>
+      <c r="J28" s="134"/>
+      <c r="K28" s="134"/>
+      <c r="L28" s="134"/>
+      <c r="M28" s="134"/>
+      <c r="N28" s="134"/>
+      <c r="O28" s="134"/>
+      <c r="P28" s="134"/>
+      <c r="Q28" s="134"/>
+      <c r="R28" s="134"/>
+      <c r="S28" s="134"/>
+      <c r="T28" s="134"/>
+      <c r="U28" s="134"/>
+      <c r="V28" s="134"/>
     </row>
     <row r="29" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="144"/>
-      <c r="B29" s="144"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="144"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="144"/>
-      <c r="I29" s="144"/>
-      <c r="J29" s="144"/>
-      <c r="K29" s="144"/>
-      <c r="L29" s="144"/>
-      <c r="M29" s="144"/>
-      <c r="N29" s="144"/>
-      <c r="O29" s="144"/>
-      <c r="P29" s="144"/>
-      <c r="Q29" s="144"/>
-      <c r="R29" s="144"/>
-      <c r="S29" s="144"/>
-      <c r="T29" s="144"/>
-      <c r="U29" s="144"/>
-      <c r="V29" s="144"/>
+      <c r="A29" s="134"/>
+      <c r="B29" s="134"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="134"/>
+      <c r="E29" s="134"/>
+      <c r="F29" s="134"/>
+      <c r="G29" s="134"/>
+      <c r="H29" s="134"/>
+      <c r="I29" s="134"/>
+      <c r="J29" s="134"/>
+      <c r="K29" s="134"/>
+      <c r="L29" s="134"/>
+      <c r="M29" s="134"/>
+      <c r="N29" s="134"/>
+      <c r="O29" s="134"/>
+      <c r="P29" s="134"/>
+      <c r="Q29" s="134"/>
+      <c r="R29" s="134"/>
+      <c r="S29" s="134"/>
+      <c r="T29" s="134"/>
+      <c r="U29" s="134"/>
+      <c r="V29" s="134"/>
     </row>
     <row r="30" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="144"/>
-      <c r="B30" s="144"/>
-      <c r="C30" s="144"/>
-      <c r="D30" s="144"/>
-      <c r="E30" s="144"/>
-      <c r="F30" s="144"/>
-      <c r="G30" s="144"/>
-      <c r="H30" s="144"/>
-      <c r="I30" s="144"/>
-      <c r="J30" s="144"/>
-      <c r="K30" s="144"/>
-      <c r="L30" s="144"/>
-      <c r="M30" s="144"/>
-      <c r="N30" s="144"/>
-      <c r="O30" s="144"/>
-      <c r="P30" s="144"/>
-      <c r="Q30" s="144"/>
-      <c r="R30" s="144"/>
-      <c r="S30" s="144"/>
-      <c r="T30" s="144"/>
-      <c r="U30" s="144"/>
-      <c r="V30" s="144"/>
+      <c r="A30" s="134"/>
+      <c r="B30" s="134"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="134"/>
+      <c r="E30" s="134"/>
+      <c r="F30" s="134"/>
+      <c r="G30" s="134"/>
+      <c r="H30" s="134"/>
+      <c r="I30" s="134"/>
+      <c r="J30" s="134"/>
+      <c r="K30" s="134"/>
+      <c r="L30" s="134"/>
+      <c r="M30" s="134"/>
+      <c r="N30" s="134"/>
+      <c r="O30" s="134"/>
+      <c r="P30" s="134"/>
+      <c r="Q30" s="134"/>
+      <c r="R30" s="134"/>
+      <c r="S30" s="134"/>
+      <c r="T30" s="134"/>
+      <c r="U30" s="134"/>
+      <c r="V30" s="134"/>
     </row>
     <row r="31" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="144"/>
-      <c r="B31" s="144"/>
-      <c r="C31" s="144"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="144"/>
-      <c r="H31" s="144"/>
-      <c r="I31" s="144"/>
-      <c r="J31" s="144"/>
-      <c r="K31" s="144"/>
-      <c r="L31" s="144"/>
-      <c r="M31" s="144"/>
-      <c r="N31" s="144"/>
-      <c r="O31" s="144"/>
-      <c r="P31" s="144"/>
-      <c r="Q31" s="144"/>
-      <c r="R31" s="144"/>
-      <c r="S31" s="144"/>
-      <c r="T31" s="144"/>
-      <c r="U31" s="144"/>
-      <c r="V31" s="144"/>
+      <c r="A31" s="134"/>
+      <c r="B31" s="134"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="134"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="134"/>
+      <c r="H31" s="134"/>
+      <c r="I31" s="134"/>
+      <c r="J31" s="134"/>
+      <c r="K31" s="134"/>
+      <c r="L31" s="134"/>
+      <c r="M31" s="134"/>
+      <c r="N31" s="134"/>
+      <c r="O31" s="134"/>
+      <c r="P31" s="134"/>
+      <c r="Q31" s="134"/>
+      <c r="R31" s="134"/>
+      <c r="S31" s="134"/>
+      <c r="T31" s="134"/>
+      <c r="U31" s="134"/>
+      <c r="V31" s="134"/>
     </row>
     <row r="32" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="144"/>
-      <c r="B32" s="144"/>
-      <c r="C32" s="144"/>
-      <c r="D32" s="144"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="144"/>
-      <c r="G32" s="144"/>
-      <c r="H32" s="144"/>
-      <c r="I32" s="144"/>
-      <c r="J32" s="144"/>
-      <c r="K32" s="144"/>
-      <c r="L32" s="144"/>
-      <c r="M32" s="144"/>
-      <c r="N32" s="144"/>
-      <c r="O32" s="144"/>
-      <c r="P32" s="144"/>
-      <c r="Q32" s="144"/>
-      <c r="R32" s="144"/>
-      <c r="S32" s="144"/>
-      <c r="T32" s="144"/>
-      <c r="U32" s="144"/>
-      <c r="V32" s="144"/>
+      <c r="A32" s="134"/>
+      <c r="B32" s="134"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="134"/>
+      <c r="E32" s="134"/>
+      <c r="F32" s="134"/>
+      <c r="G32" s="134"/>
+      <c r="H32" s="134"/>
+      <c r="I32" s="134"/>
+      <c r="J32" s="134"/>
+      <c r="K32" s="134"/>
+      <c r="L32" s="134"/>
+      <c r="M32" s="134"/>
+      <c r="N32" s="134"/>
+      <c r="O32" s="134"/>
+      <c r="P32" s="134"/>
+      <c r="Q32" s="134"/>
+      <c r="R32" s="134"/>
+      <c r="S32" s="134"/>
+      <c r="T32" s="134"/>
+      <c r="U32" s="134"/>
+      <c r="V32" s="134"/>
     </row>
     <row r="33" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="144"/>
-      <c r="B33" s="144"/>
-      <c r="C33" s="144"/>
-      <c r="D33" s="144"/>
-      <c r="E33" s="144"/>
-      <c r="F33" s="144"/>
-      <c r="G33" s="144"/>
-      <c r="H33" s="144"/>
-      <c r="I33" s="144"/>
-      <c r="J33" s="144"/>
-      <c r="K33" s="144"/>
-      <c r="L33" s="144"/>
-      <c r="M33" s="144"/>
-      <c r="N33" s="144"/>
-      <c r="O33" s="144"/>
-      <c r="P33" s="144"/>
-      <c r="Q33" s="144"/>
-      <c r="R33" s="144"/>
-      <c r="S33" s="144"/>
-      <c r="T33" s="144"/>
-      <c r="U33" s="144"/>
-      <c r="V33" s="144"/>
+      <c r="A33" s="134"/>
+      <c r="B33" s="134"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="134"/>
+      <c r="E33" s="134"/>
+      <c r="F33" s="134"/>
+      <c r="G33" s="134"/>
+      <c r="H33" s="134"/>
+      <c r="I33" s="134"/>
+      <c r="J33" s="134"/>
+      <c r="K33" s="134"/>
+      <c r="L33" s="134"/>
+      <c r="M33" s="134"/>
+      <c r="N33" s="134"/>
+      <c r="O33" s="134"/>
+      <c r="P33" s="134"/>
+      <c r="Q33" s="134"/>
+      <c r="R33" s="134"/>
+      <c r="S33" s="134"/>
+      <c r="T33" s="134"/>
+      <c r="U33" s="134"/>
+      <c r="V33" s="134"/>
     </row>
     <row r="34" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="144"/>
-      <c r="B34" s="144"/>
-      <c r="C34" s="144"/>
-      <c r="D34" s="144"/>
-      <c r="E34" s="144"/>
-      <c r="F34" s="144"/>
-      <c r="G34" s="144"/>
-      <c r="H34" s="144"/>
-      <c r="I34" s="144"/>
-      <c r="J34" s="144"/>
-      <c r="K34" s="144"/>
-      <c r="L34" s="144"/>
-      <c r="M34" s="144"/>
-      <c r="N34" s="144"/>
-      <c r="O34" s="144"/>
-      <c r="P34" s="144"/>
-      <c r="Q34" s="144"/>
-      <c r="R34" s="144"/>
-      <c r="S34" s="144"/>
-      <c r="T34" s="144"/>
-      <c r="U34" s="144"/>
-      <c r="V34" s="144"/>
+      <c r="A34" s="134"/>
+      <c r="B34" s="134"/>
+      <c r="C34" s="134"/>
+      <c r="D34" s="134"/>
+      <c r="E34" s="134"/>
+      <c r="F34" s="134"/>
+      <c r="G34" s="134"/>
+      <c r="H34" s="134"/>
+      <c r="I34" s="134"/>
+      <c r="J34" s="134"/>
+      <c r="K34" s="134"/>
+      <c r="L34" s="134"/>
+      <c r="M34" s="134"/>
+      <c r="N34" s="134"/>
+      <c r="O34" s="134"/>
+      <c r="P34" s="134"/>
+      <c r="Q34" s="134"/>
+      <c r="R34" s="134"/>
+      <c r="S34" s="134"/>
+      <c r="T34" s="134"/>
+      <c r="U34" s="134"/>
+      <c r="V34" s="134"/>
     </row>
     <row r="35" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="144"/>
-      <c r="B35" s="144"/>
-      <c r="C35" s="144"/>
-      <c r="D35" s="144"/>
-      <c r="E35" s="144"/>
-      <c r="F35" s="144"/>
-      <c r="G35" s="144"/>
-      <c r="H35" s="144"/>
-      <c r="I35" s="144"/>
-      <c r="J35" s="144"/>
-      <c r="K35" s="144"/>
-      <c r="L35" s="144"/>
-      <c r="M35" s="144"/>
-      <c r="N35" s="144"/>
-      <c r="O35" s="144"/>
-      <c r="P35" s="144"/>
-      <c r="Q35" s="144"/>
-      <c r="R35" s="144"/>
-      <c r="S35" s="144"/>
-      <c r="T35" s="144"/>
-      <c r="U35" s="144"/>
-      <c r="V35" s="144"/>
+      <c r="A35" s="134"/>
+      <c r="B35" s="134"/>
+      <c r="C35" s="134"/>
+      <c r="D35" s="134"/>
+      <c r="E35" s="134"/>
+      <c r="F35" s="134"/>
+      <c r="G35" s="134"/>
+      <c r="H35" s="134"/>
+      <c r="I35" s="134"/>
+      <c r="J35" s="134"/>
+      <c r="K35" s="134"/>
+      <c r="L35" s="134"/>
+      <c r="M35" s="134"/>
+      <c r="N35" s="134"/>
+      <c r="O35" s="134"/>
+      <c r="P35" s="134"/>
+      <c r="Q35" s="134"/>
+      <c r="R35" s="134"/>
+      <c r="S35" s="134"/>
+      <c r="T35" s="134"/>
+      <c r="U35" s="134"/>
+      <c r="V35" s="134"/>
     </row>
     <row r="36" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="144"/>
-      <c r="B36" s="144"/>
-      <c r="C36" s="144"/>
-      <c r="D36" s="144"/>
-      <c r="E36" s="144"/>
-      <c r="F36" s="144"/>
-      <c r="G36" s="144"/>
-      <c r="H36" s="144"/>
-      <c r="I36" s="144"/>
-      <c r="J36" s="144"/>
-      <c r="K36" s="144"/>
-      <c r="L36" s="144"/>
-      <c r="M36" s="144"/>
-      <c r="N36" s="144"/>
-      <c r="O36" s="144"/>
-      <c r="P36" s="144"/>
-      <c r="Q36" s="144"/>
-      <c r="R36" s="144"/>
-      <c r="S36" s="144"/>
-      <c r="T36" s="144"/>
-      <c r="U36" s="144"/>
-      <c r="V36" s="144"/>
+      <c r="A36" s="134"/>
+      <c r="B36" s="134"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="134"/>
+      <c r="E36" s="134"/>
+      <c r="F36" s="134"/>
+      <c r="G36" s="134"/>
+      <c r="H36" s="134"/>
+      <c r="I36" s="134"/>
+      <c r="J36" s="134"/>
+      <c r="K36" s="134"/>
+      <c r="L36" s="134"/>
+      <c r="M36" s="134"/>
+      <c r="N36" s="134"/>
+      <c r="O36" s="134"/>
+      <c r="P36" s="134"/>
+      <c r="Q36" s="134"/>
+      <c r="R36" s="134"/>
+      <c r="S36" s="134"/>
+      <c r="T36" s="134"/>
+      <c r="U36" s="134"/>
+      <c r="V36" s="134"/>
     </row>
     <row r="37" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="144"/>
-      <c r="B37" s="144"/>
-      <c r="C37" s="144"/>
-      <c r="D37" s="144"/>
-      <c r="E37" s="144"/>
-      <c r="F37" s="144"/>
-      <c r="G37" s="144"/>
-      <c r="H37" s="144"/>
-      <c r="I37" s="144"/>
-      <c r="J37" s="144"/>
-      <c r="K37" s="144"/>
-      <c r="L37" s="144"/>
-      <c r="M37" s="144"/>
-      <c r="N37" s="144"/>
-      <c r="O37" s="144"/>
-      <c r="P37" s="144"/>
-      <c r="Q37" s="144"/>
-      <c r="R37" s="144"/>
-      <c r="S37" s="144"/>
-      <c r="T37" s="144"/>
-      <c r="U37" s="144"/>
-      <c r="V37" s="144"/>
+      <c r="A37" s="134"/>
+      <c r="B37" s="134"/>
+      <c r="C37" s="134"/>
+      <c r="D37" s="134"/>
+      <c r="E37" s="134"/>
+      <c r="F37" s="134"/>
+      <c r="G37" s="134"/>
+      <c r="H37" s="134"/>
+      <c r="I37" s="134"/>
+      <c r="J37" s="134"/>
+      <c r="K37" s="134"/>
+      <c r="L37" s="134"/>
+      <c r="M37" s="134"/>
+      <c r="N37" s="134"/>
+      <c r="O37" s="134"/>
+      <c r="P37" s="134"/>
+      <c r="Q37" s="134"/>
+      <c r="R37" s="134"/>
+      <c r="S37" s="134"/>
+      <c r="T37" s="134"/>
+      <c r="U37" s="134"/>
+      <c r="V37" s="134"/>
     </row>
     <row r="38" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="144"/>
-      <c r="B38" s="144"/>
-      <c r="C38" s="144"/>
-      <c r="D38" s="144"/>
-      <c r="E38" s="144"/>
-      <c r="F38" s="144"/>
-      <c r="G38" s="144"/>
-      <c r="H38" s="144"/>
-      <c r="I38" s="144"/>
-      <c r="J38" s="144"/>
-      <c r="K38" s="144"/>
-      <c r="L38" s="144"/>
-      <c r="M38" s="144"/>
-      <c r="N38" s="144"/>
-      <c r="O38" s="144"/>
-      <c r="P38" s="144"/>
-      <c r="Q38" s="144"/>
-      <c r="R38" s="144"/>
-      <c r="S38" s="144"/>
-      <c r="T38" s="144"/>
-      <c r="U38" s="144"/>
-      <c r="V38" s="144"/>
+      <c r="A38" s="134"/>
+      <c r="B38" s="134"/>
+      <c r="C38" s="134"/>
+      <c r="D38" s="134"/>
+      <c r="E38" s="134"/>
+      <c r="F38" s="134"/>
+      <c r="G38" s="134"/>
+      <c r="H38" s="134"/>
+      <c r="I38" s="134"/>
+      <c r="J38" s="134"/>
+      <c r="K38" s="134"/>
+      <c r="L38" s="134"/>
+      <c r="M38" s="134"/>
+      <c r="N38" s="134"/>
+      <c r="O38" s="134"/>
+      <c r="P38" s="134"/>
+      <c r="Q38" s="134"/>
+      <c r="R38" s="134"/>
+      <c r="S38" s="134"/>
+      <c r="T38" s="134"/>
+      <c r="U38" s="134"/>
+      <c r="V38" s="134"/>
     </row>
     <row r="39" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="144"/>
-      <c r="B39" s="144"/>
-      <c r="C39" s="144"/>
-      <c r="D39" s="144"/>
-      <c r="E39" s="144"/>
-      <c r="F39" s="144"/>
-      <c r="G39" s="144"/>
-      <c r="H39" s="144"/>
-      <c r="I39" s="144"/>
-      <c r="J39" s="144"/>
-      <c r="K39" s="144"/>
-      <c r="L39" s="144"/>
-      <c r="M39" s="144"/>
-      <c r="N39" s="144"/>
-      <c r="O39" s="144"/>
-      <c r="P39" s="144"/>
-      <c r="Q39" s="144"/>
-      <c r="R39" s="144"/>
-      <c r="S39" s="144"/>
-      <c r="T39" s="144"/>
-      <c r="U39" s="144"/>
-      <c r="V39" s="144"/>
+      <c r="A39" s="134"/>
+      <c r="B39" s="134"/>
+      <c r="C39" s="134"/>
+      <c r="D39" s="134"/>
+      <c r="E39" s="134"/>
+      <c r="F39" s="134"/>
+      <c r="G39" s="134"/>
+      <c r="H39" s="134"/>
+      <c r="I39" s="134"/>
+      <c r="J39" s="134"/>
+      <c r="K39" s="134"/>
+      <c r="L39" s="134"/>
+      <c r="M39" s="134"/>
+      <c r="N39" s="134"/>
+      <c r="O39" s="134"/>
+      <c r="P39" s="134"/>
+      <c r="Q39" s="134"/>
+      <c r="R39" s="134"/>
+      <c r="S39" s="134"/>
+      <c r="T39" s="134"/>
+      <c r="U39" s="134"/>
+      <c r="V39" s="134"/>
     </row>
     <row r="40" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="144"/>
-      <c r="B40" s="144"/>
-      <c r="C40" s="144"/>
-      <c r="D40" s="144"/>
-      <c r="E40" s="144"/>
-      <c r="F40" s="144"/>
-      <c r="G40" s="144"/>
-      <c r="H40" s="144"/>
-      <c r="I40" s="144"/>
-      <c r="J40" s="144"/>
-      <c r="K40" s="144"/>
-      <c r="L40" s="144"/>
-      <c r="M40" s="144"/>
-      <c r="N40" s="144"/>
-      <c r="O40" s="144"/>
-      <c r="P40" s="144"/>
-      <c r="Q40" s="144"/>
-      <c r="R40" s="144"/>
-      <c r="S40" s="144"/>
-      <c r="T40" s="144"/>
-      <c r="U40" s="144"/>
-      <c r="V40" s="144"/>
+      <c r="A40" s="134"/>
+      <c r="B40" s="134"/>
+      <c r="C40" s="134"/>
+      <c r="D40" s="134"/>
+      <c r="E40" s="134"/>
+      <c r="F40" s="134"/>
+      <c r="G40" s="134"/>
+      <c r="H40" s="134"/>
+      <c r="I40" s="134"/>
+      <c r="J40" s="134"/>
+      <c r="K40" s="134"/>
+      <c r="L40" s="134"/>
+      <c r="M40" s="134"/>
+      <c r="N40" s="134"/>
+      <c r="O40" s="134"/>
+      <c r="P40" s="134"/>
+      <c r="Q40" s="134"/>
+      <c r="R40" s="134"/>
+      <c r="S40" s="134"/>
+      <c r="T40" s="134"/>
+      <c r="U40" s="134"/>
+      <c r="V40" s="134"/>
     </row>
     <row r="41" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="144"/>
-      <c r="B41" s="144"/>
-      <c r="C41" s="144"/>
-      <c r="D41" s="144"/>
-      <c r="E41" s="144"/>
-      <c r="F41" s="144"/>
-      <c r="G41" s="144"/>
-      <c r="H41" s="144"/>
-      <c r="I41" s="144"/>
-      <c r="J41" s="144"/>
-      <c r="K41" s="144"/>
-      <c r="L41" s="144"/>
-      <c r="M41" s="144"/>
-      <c r="N41" s="144"/>
-      <c r="O41" s="144"/>
-      <c r="P41" s="144"/>
-      <c r="Q41" s="144"/>
-      <c r="R41" s="144"/>
-      <c r="S41" s="144"/>
-      <c r="T41" s="144"/>
-      <c r="U41" s="144"/>
-      <c r="V41" s="144"/>
+      <c r="A41" s="134"/>
+      <c r="B41" s="134"/>
+      <c r="C41" s="134"/>
+      <c r="D41" s="134"/>
+      <c r="E41" s="134"/>
+      <c r="F41" s="134"/>
+      <c r="G41" s="134"/>
+      <c r="H41" s="134"/>
+      <c r="I41" s="134"/>
+      <c r="J41" s="134"/>
+      <c r="K41" s="134"/>
+      <c r="L41" s="134"/>
+      <c r="M41" s="134"/>
+      <c r="N41" s="134"/>
+      <c r="O41" s="134"/>
+      <c r="P41" s="134"/>
+      <c r="Q41" s="134"/>
+      <c r="R41" s="134"/>
+      <c r="S41" s="134"/>
+      <c r="T41" s="134"/>
+      <c r="U41" s="134"/>
+      <c r="V41" s="134"/>
     </row>
     <row r="42" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="144"/>
-      <c r="B42" s="144"/>
-      <c r="C42" s="144"/>
-      <c r="D42" s="144"/>
-      <c r="E42" s="144"/>
-      <c r="F42" s="144"/>
-      <c r="G42" s="144"/>
-      <c r="H42" s="144"/>
-      <c r="I42" s="144"/>
-      <c r="J42" s="144"/>
-      <c r="K42" s="144"/>
-      <c r="L42" s="144"/>
-      <c r="M42" s="144"/>
-      <c r="N42" s="144"/>
-      <c r="O42" s="144"/>
-      <c r="P42" s="144"/>
-      <c r="Q42" s="144"/>
-      <c r="R42" s="144"/>
-      <c r="S42" s="144"/>
-      <c r="T42" s="144"/>
-      <c r="U42" s="144"/>
-      <c r="V42" s="144"/>
+      <c r="A42" s="134"/>
+      <c r="B42" s="134"/>
+      <c r="C42" s="134"/>
+      <c r="D42" s="134"/>
+      <c r="E42" s="134"/>
+      <c r="F42" s="134"/>
+      <c r="G42" s="134"/>
+      <c r="H42" s="134"/>
+      <c r="I42" s="134"/>
+      <c r="J42" s="134"/>
+      <c r="K42" s="134"/>
+      <c r="L42" s="134"/>
+      <c r="M42" s="134"/>
+      <c r="N42" s="134"/>
+      <c r="O42" s="134"/>
+      <c r="P42" s="134"/>
+      <c r="Q42" s="134"/>
+      <c r="R42" s="134"/>
+      <c r="S42" s="134"/>
+      <c r="T42" s="134"/>
+      <c r="U42" s="134"/>
+      <c r="V42" s="134"/>
     </row>
     <row r="43" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="144"/>
-      <c r="B43" s="144"/>
-      <c r="C43" s="144"/>
-      <c r="D43" s="144"/>
-      <c r="E43" s="144"/>
-      <c r="F43" s="144"/>
-      <c r="G43" s="144"/>
-      <c r="H43" s="144"/>
-      <c r="I43" s="144"/>
-      <c r="J43" s="144"/>
-      <c r="K43" s="144"/>
-      <c r="L43" s="144"/>
-      <c r="M43" s="144"/>
-      <c r="N43" s="144"/>
-      <c r="O43" s="144"/>
-      <c r="P43" s="144"/>
-      <c r="Q43" s="144"/>
-      <c r="R43" s="144"/>
-      <c r="S43" s="144"/>
-      <c r="T43" s="144"/>
-      <c r="U43" s="144"/>
-      <c r="V43" s="144"/>
+      <c r="A43" s="134"/>
+      <c r="B43" s="134"/>
+      <c r="C43" s="134"/>
+      <c r="D43" s="134"/>
+      <c r="E43" s="134"/>
+      <c r="F43" s="134"/>
+      <c r="G43" s="134"/>
+      <c r="H43" s="134"/>
+      <c r="I43" s="134"/>
+      <c r="J43" s="134"/>
+      <c r="K43" s="134"/>
+      <c r="L43" s="134"/>
+      <c r="M43" s="134"/>
+      <c r="N43" s="134"/>
+      <c r="O43" s="134"/>
+      <c r="P43" s="134"/>
+      <c r="Q43" s="134"/>
+      <c r="R43" s="134"/>
+      <c r="S43" s="134"/>
+      <c r="T43" s="134"/>
+      <c r="U43" s="134"/>
+      <c r="V43" s="134"/>
     </row>
     <row r="44" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="144"/>
-      <c r="B44" s="144"/>
-      <c r="C44" s="144"/>
-      <c r="D44" s="144"/>
-      <c r="E44" s="144"/>
-      <c r="F44" s="144"/>
-      <c r="G44" s="144"/>
-      <c r="H44" s="144"/>
-      <c r="I44" s="144"/>
-      <c r="J44" s="144"/>
-      <c r="K44" s="144"/>
-      <c r="L44" s="144"/>
-      <c r="M44" s="144"/>
-      <c r="N44" s="144"/>
-      <c r="O44" s="144"/>
-      <c r="P44" s="144"/>
-      <c r="Q44" s="144"/>
-      <c r="R44" s="144"/>
-      <c r="S44" s="144"/>
-      <c r="T44" s="144"/>
-      <c r="U44" s="144"/>
-      <c r="V44" s="144"/>
+      <c r="A44" s="134"/>
+      <c r="B44" s="134"/>
+      <c r="C44" s="134"/>
+      <c r="D44" s="134"/>
+      <c r="E44" s="134"/>
+      <c r="F44" s="134"/>
+      <c r="G44" s="134"/>
+      <c r="H44" s="134"/>
+      <c r="I44" s="134"/>
+      <c r="J44" s="134"/>
+      <c r="K44" s="134"/>
+      <c r="L44" s="134"/>
+      <c r="M44" s="134"/>
+      <c r="N44" s="134"/>
+      <c r="O44" s="134"/>
+      <c r="P44" s="134"/>
+      <c r="Q44" s="134"/>
+      <c r="R44" s="134"/>
+      <c r="S44" s="134"/>
+      <c r="T44" s="134"/>
+      <c r="U44" s="134"/>
+      <c r="V44" s="134"/>
     </row>
     <row r="45" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="144"/>
-      <c r="B45" s="144"/>
-      <c r="C45" s="144"/>
-      <c r="D45" s="144"/>
-      <c r="E45" s="144"/>
-      <c r="F45" s="144"/>
-      <c r="G45" s="144"/>
-      <c r="H45" s="144"/>
-      <c r="I45" s="144"/>
-      <c r="J45" s="144"/>
-      <c r="K45" s="144"/>
-      <c r="L45" s="144"/>
-      <c r="M45" s="144"/>
-      <c r="N45" s="144"/>
-      <c r="O45" s="144"/>
-      <c r="P45" s="144"/>
-      <c r="Q45" s="144"/>
-      <c r="R45" s="144"/>
-      <c r="S45" s="144"/>
-      <c r="T45" s="144"/>
-      <c r="U45" s="144"/>
-      <c r="V45" s="144"/>
+      <c r="A45" s="134"/>
+      <c r="B45" s="134"/>
+      <c r="C45" s="134"/>
+      <c r="D45" s="134"/>
+      <c r="E45" s="134"/>
+      <c r="F45" s="134"/>
+      <c r="G45" s="134"/>
+      <c r="H45" s="134"/>
+      <c r="I45" s="134"/>
+      <c r="J45" s="134"/>
+      <c r="K45" s="134"/>
+      <c r="L45" s="134"/>
+      <c r="M45" s="134"/>
+      <c r="N45" s="134"/>
+      <c r="O45" s="134"/>
+      <c r="P45" s="134"/>
+      <c r="Q45" s="134"/>
+      <c r="R45" s="134"/>
+      <c r="S45" s="134"/>
+      <c r="T45" s="134"/>
+      <c r="U45" s="134"/>
+      <c r="V45" s="134"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="35">
+    <mergeCell ref="A1:V3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:V4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:V5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:V6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="R7:V7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="F9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="R9:V9"/>
+    <mergeCell ref="A16:V16"/>
     <mergeCell ref="A17:V20"/>
     <mergeCell ref="A21:V21"/>
     <mergeCell ref="A22:V45"/>
@@ -5574,32 +5600,6 @@
     <mergeCell ref="R10:V10"/>
     <mergeCell ref="A11:V11"/>
     <mergeCell ref="A12:V15"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="F9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="R9:V9"/>
-    <mergeCell ref="A16:V16"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="R7:V7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:V5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:V6"/>
-    <mergeCell ref="A1:V3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:V4"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="F6" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -5633,9 +5633,9 @@
   <dimension ref="A1:O607"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B11" sqref="B11"/>
-      <selection pane="bottomLeft" activeCell="A67" sqref="A67"/>
+      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5658,75 +5658,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="145" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="153"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="145"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="145"/>
+      <c r="N1" s="145"/>
+      <c r="O1" s="145"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="153"/>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="153"/>
+      <c r="A2" s="145"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="145"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="153"/>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
-      <c r="M3" s="153"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="153"/>
+      <c r="A3" s="145"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="145"/>
+      <c r="L3" s="145"/>
+      <c r="M3" s="145"/>
+      <c r="N3" s="145"/>
+      <c r="O3" s="145"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v>Aplicação : Doggis</v>
       </c>
-      <c r="B4" s="146" t="str">
+      <c r="B4" s="148" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v>Projeto : Doggis</v>
       </c>
-      <c r="C4" s="147"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="147"/>
-      <c r="I4" s="147"/>
-      <c r="J4" s="148"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="150"/>
       <c r="K4" s="117" t="s">
         <v>2</v>
       </c>
@@ -5734,27 +5734,27 @@
         <f>SUM(H8:H607)</f>
         <v>220</v>
       </c>
-      <c r="M4" s="152"/>
-      <c r="N4" s="152"/>
-      <c r="O4" s="152"/>
+      <c r="M4" s="146"/>
+      <c r="N4" s="146"/>
+      <c r="O4" s="146"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f>Contagem!A9&amp;" : "&amp;Contagem!F9</f>
         <v>Responsável : Adelaide Antunes</v>
       </c>
-      <c r="B5" s="146" t="str">
+      <c r="B5" s="148" t="str">
         <f>Contagem!A10&amp;" : "&amp;Contagem!F10</f>
         <v>Revisor : Adelaide Antunes</v>
       </c>
-      <c r="C5" s="147"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="148"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="150"/>
       <c r="K5" s="119" t="s">
         <v>6</v>
       </c>
@@ -5762,27 +5762,27 @@
         <f>SUM(K8:K607)</f>
         <v>220</v>
       </c>
-      <c r="M5" s="145"/>
-      <c r="N5" s="145"/>
-      <c r="O5" s="145"/>
+      <c r="M5" s="147"/>
+      <c r="N5" s="147"/>
+      <c r="O5" s="147"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="125" t="str">
         <f>Contagem!A4&amp;" : "&amp;Contagem!F4</f>
         <v>Empresa : Petshop Adelaide</v>
       </c>
-      <c r="B6" s="149" t="str">
+      <c r="B6" s="151" t="str">
         <f>"Tipo da Contagem : "&amp;Contagem!F6</f>
         <v>Tipo da Contagem : Aplicação</v>
       </c>
-      <c r="C6" s="150"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="151"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="152"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="153"/>
       <c r="K6" s="118" t="s">
         <v>4</v>
       </c>
@@ -5790,9 +5790,9 @@
         <f>SUM(L8:L607)</f>
         <v>220</v>
       </c>
-      <c r="M6" s="152"/>
-      <c r="N6" s="152"/>
-      <c r="O6" s="152"/>
+      <c r="M6" s="146"/>
+      <c r="N6" s="146"/>
+      <c r="O6" s="146"/>
     </row>
     <row r="7" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="124" t="s">
@@ -5855,7 +5855,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F8" s="5" t="str">
         <f t="shared" ref="F8:F71" si="0">IF(ISBLANK(B8),"",IF(I8="L","Baixa",IF(I8="A","Média",IF(I8="","","Alta"))))</f>
@@ -5903,7 +5903,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5948,9 +5948,11 @@
         <v>41</v>
       </c>
       <c r="D10" s="11">
-        <v>6</v>
-      </c>
-      <c r="E10" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1</v>
+      </c>
       <c r="F10" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Baixa</v>
@@ -5994,9 +5996,11 @@
         <v>41</v>
       </c>
       <c r="D11" s="11">
-        <v>4</v>
-      </c>
-      <c r="E11" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="E11" s="11">
+        <v>2</v>
+      </c>
       <c r="F11" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Baixa</v>
@@ -6031,7 +6035,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="130" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>98</v>
@@ -6040,9 +6044,11 @@
         <v>41</v>
       </c>
       <c r="D12" s="11">
-        <v>4</v>
-      </c>
-      <c r="E12" s="11"/>
+        <v>5</v>
+      </c>
+      <c r="E12" s="11">
+        <v>2</v>
+      </c>
       <c r="F12" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Baixa</v>
@@ -6086,10 +6092,10 @@
         <v>41</v>
       </c>
       <c r="D13" s="11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E13" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -6125,7 +6131,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="130" t="s">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>98</v>
@@ -6134,7 +6140,7 @@
         <v>41</v>
       </c>
       <c r="D14" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" s="11">
         <v>2</v>
@@ -6173,7 +6179,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="130" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>98</v>
@@ -6259,7 +6265,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="130" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>100</v>
@@ -6303,7 +6309,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="130" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>100</v>
@@ -6347,7 +6353,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="130" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>100</v>
@@ -6391,7 +6397,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="130" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>102</v>
@@ -6435,7 +6441,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="130" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>100</v>
@@ -6517,7 +6523,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="130" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>100</v>
@@ -6561,7 +6567,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="130" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>100</v>
@@ -6605,7 +6611,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="130" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>102</v>
@@ -6649,7 +6655,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="130" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>100</v>
@@ -6693,7 +6699,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="130" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>100</v>
@@ -6737,7 +6743,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="130" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>100</v>
@@ -6857,7 +6863,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="130" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>100</v>
@@ -6901,7 +6907,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="130" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>100</v>
@@ -6945,7 +6951,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="130" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>102</v>
@@ -6989,7 +6995,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="130" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>100</v>
@@ -7071,7 +7077,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="130" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>100</v>
@@ -7115,7 +7121,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="130" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>100</v>
@@ -7159,7 +7165,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="130" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>100</v>
@@ -7241,7 +7247,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="130" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>100</v>
@@ -7285,7 +7291,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="130" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>100</v>
@@ -7329,7 +7335,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="130" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>100</v>
@@ -7373,7 +7379,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="130" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>102</v>
@@ -7417,7 +7423,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="130" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>100</v>
@@ -7499,7 +7505,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="130" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>100</v>
@@ -7543,7 +7549,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="130" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>100</v>
@@ -7587,7 +7593,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="130" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>100</v>
@@ -7631,7 +7637,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="130" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>102</v>
@@ -7675,7 +7681,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="130" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>100</v>
@@ -7719,7 +7725,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="130" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>100</v>
@@ -7801,7 +7807,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="130" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>100</v>
@@ -7845,7 +7851,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="130" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>100</v>
@@ -7889,7 +7895,7 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="130" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>100</v>
@@ -7933,7 +7939,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="130" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>102</v>
@@ -8015,7 +8021,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="130" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>102</v>
@@ -8059,7 +8065,7 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="130" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>102</v>
@@ -8103,7 +8109,7 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="130" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>100</v>
@@ -8185,7 +8191,7 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="130" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>103</v>
@@ -8267,7 +8273,7 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="130" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>103</v>
@@ -8311,7 +8317,7 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="130" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>103</v>
@@ -8355,7 +8361,7 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="130" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>103</v>
@@ -28958,13 +28964,13 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="7">
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="M6:O6"/>
     <mergeCell ref="A1:O3"/>
     <mergeCell ref="M4:O4"/>
     <mergeCell ref="M5:O5"/>
     <mergeCell ref="B4:J4"/>
     <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="M6:O6"/>
   </mergeCells>
   <conditionalFormatting sqref="C8:C16 C72:C607 C22 C28 C33 C37">
     <cfRule type="cellIs" dxfId="26" priority="25" stopIfTrue="1" operator="equal">
@@ -29093,7 +29099,7 @@
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B11" sqref="B11"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10:E10"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -29109,41 +29115,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
       <c r="L1" s="26"/>
     </row>
     <row r="2" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="155" t="s">
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="157" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="155" t="s">
+      <c r="H2" s="157" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155" t="s">
+      <c r="I2" s="157"/>
+      <c r="J2" s="157" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="156" t="s">
+      <c r="K2" s="159" t="s">
         <v>34</v>
       </c>
     </row>
@@ -29151,35 +29157,35 @@
       <c r="A3" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="155" t="s">
+      <c r="B3" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
       <c r="F3" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="155"/>
+      <c r="G3" s="157"/>
       <c r="H3" s="28" t="s">
         <v>37</v>
       </c>
       <c r="I3" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="155"/>
-      <c r="K3" s="156"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="159"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="137"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
       <c r="F4" s="2"/>
       <c r="G4" s="29" t="s">
         <v>41</v>
@@ -29201,12 +29207,12 @@
       <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="137" t="s">
+      <c r="B5" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="137"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
       <c r="F5" s="2" t="s">
         <v>48</v>
       </c>
@@ -29230,12 +29236,12 @@
       <c r="A6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="137" t="s">
+      <c r="B6" s="140" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
       <c r="F6" s="2" t="s">
         <v>48</v>
       </c>
@@ -29257,12 +29263,12 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="140" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
       <c r="F7" s="2" t="s">
         <v>48</v>
       </c>
@@ -29284,12 +29290,12 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="140" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="137"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="137"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
       <c r="F8" s="2" t="s">
         <v>48</v>
       </c>
@@ -29311,12 +29317,12 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="140" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="137"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="140"/>
       <c r="F9" s="2" t="s">
         <v>48</v>
       </c>
@@ -29338,12 +29344,12 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
-      <c r="B10" s="137" t="s">
+      <c r="B10" s="140" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="137"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="137"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="140"/>
       <c r="F10" s="2" t="s">
         <v>53</v>
       </c>
@@ -29365,12 +29371,12 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="B11" s="137" t="s">
+      <c r="B11" s="140" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="137"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
+      <c r="C11" s="140"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="140"/>
       <c r="F11" s="2" t="s">
         <v>56</v>
       </c>
@@ -29392,12 +29398,12 @@
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
-      <c r="B12" s="137" t="s">
+      <c r="B12" s="140" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="137"/>
-      <c r="D12" s="137"/>
-      <c r="E12" s="137"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="140"/>
       <c r="F12" s="2" t="s">
         <v>56</v>
       </c>
@@ -29419,12 +29425,12 @@
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="137" t="s">
+      <c r="B13" s="140" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="137"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
       <c r="F13" s="2" t="s">
         <v>56</v>
       </c>
@@ -29446,12 +29452,12 @@
     </row>
     <row r="14" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="137" t="s">
+      <c r="B14" s="140" t="s">
         <v>148</v>
       </c>
-      <c r="C14" s="137"/>
-      <c r="D14" s="137"/>
-      <c r="E14" s="137"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="140"/>
       <c r="F14" s="2" t="s">
         <v>56</v>
       </c>
@@ -29473,12 +29479,12 @@
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="137" t="s">
+      <c r="B15" s="140" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="137"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="137"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
       <c r="F15" s="2" t="s">
         <v>56</v>
       </c>
@@ -29500,12 +29506,12 @@
     </row>
     <row r="16" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
-      <c r="B16" s="137" t="s">
+      <c r="B16" s="140" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="137"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="137"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="140"/>
       <c r="F16" s="2" t="s">
         <v>63</v>
       </c>
@@ -29527,12 +29533,12 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
-      <c r="B17" s="137" t="s">
+      <c r="B17" s="140" t="s">
         <v>168</v>
       </c>
-      <c r="C17" s="137"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="2" t="s">
         <v>65</v>
       </c>
@@ -29554,12 +29560,12 @@
     </row>
     <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
-      <c r="B18" s="137" t="s">
+      <c r="B18" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="C18" s="137"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="137"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="140"/>
       <c r="F18" s="2" t="s">
         <v>65</v>
       </c>
@@ -29581,12 +29587,12 @@
     </row>
     <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
-      <c r="B19" s="137" t="s">
+      <c r="B19" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="137"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="137"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
       <c r="F19" s="2" t="s">
         <v>67</v>
       </c>
@@ -29608,12 +29614,12 @@
     </row>
     <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
-      <c r="B20" s="137" t="s">
+      <c r="B20" s="140" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="137"/>
-      <c r="D20" s="137"/>
-      <c r="E20" s="137"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="140"/>
       <c r="F20" s="2" t="s">
         <v>70</v>
       </c>
@@ -29635,12 +29641,12 @@
     </row>
     <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
-      <c r="B21" s="137" t="s">
+      <c r="B21" s="140" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="137"/>
-      <c r="D21" s="137"/>
-      <c r="E21" s="137"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="140"/>
       <c r="F21" s="2" t="s">
         <v>73</v>
       </c>
@@ -29662,12 +29668,12 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
-      <c r="B22" s="137" t="s">
+      <c r="B22" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="137"/>
-      <c r="D22" s="137"/>
-      <c r="E22" s="137"/>
+      <c r="C22" s="140"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="140"/>
       <c r="F22" s="2" t="s">
         <v>76</v>
       </c>
@@ -29689,12 +29695,12 @@
     </row>
     <row r="23" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
-      <c r="B23" s="157" t="s">
+      <c r="B23" s="160" t="s">
         <v>154</v>
       </c>
-      <c r="C23" s="158"/>
-      <c r="D23" s="158"/>
-      <c r="E23" s="159"/>
+      <c r="C23" s="161"/>
+      <c r="D23" s="161"/>
+      <c r="E23" s="162"/>
       <c r="F23" s="107" t="s">
         <v>78</v>
       </c>
@@ -29716,12 +29722,12 @@
     </row>
     <row r="24" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
-      <c r="B24" s="157" t="s">
+      <c r="B24" s="160" t="s">
         <v>155</v>
       </c>
-      <c r="C24" s="158"/>
-      <c r="D24" s="158"/>
-      <c r="E24" s="159"/>
+      <c r="C24" s="161"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="162"/>
       <c r="F24" s="107" t="s">
         <v>78</v>
       </c>
@@ -29743,12 +29749,12 @@
     </row>
     <row r="25" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
-      <c r="B25" s="160" t="s">
+      <c r="B25" s="163" t="s">
         <v>156</v>
       </c>
-      <c r="C25" s="137"/>
-      <c r="D25" s="137"/>
-      <c r="E25" s="137"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="140"/>
       <c r="F25" s="107" t="s">
         <v>78</v>
       </c>
@@ -29770,12 +29776,12 @@
     </row>
     <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
-      <c r="B26" s="137" t="s">
+      <c r="B26" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="C26" s="137"/>
-      <c r="D26" s="137"/>
-      <c r="E26" s="137"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="140"/>
       <c r="F26" s="2" t="s">
         <v>81</v>
       </c>
@@ -29797,12 +29803,12 @@
     </row>
     <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
-      <c r="B27" s="137" t="s">
+      <c r="B27" s="140" t="s">
         <v>166</v>
       </c>
-      <c r="C27" s="137"/>
-      <c r="D27" s="137"/>
-      <c r="E27" s="137"/>
+      <c r="C27" s="140"/>
+      <c r="D27" s="140"/>
+      <c r="E27" s="140"/>
       <c r="F27" s="2" t="s">
         <v>81</v>
       </c>
@@ -29824,12 +29830,12 @@
     </row>
     <row r="28" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
-      <c r="B28" s="137" t="s">
+      <c r="B28" s="140" t="s">
         <v>165</v>
       </c>
-      <c r="C28" s="137"/>
-      <c r="D28" s="137"/>
-      <c r="E28" s="137"/>
+      <c r="C28" s="140"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="140"/>
       <c r="F28" s="2" t="s">
         <v>81</v>
       </c>
@@ -29851,12 +29857,12 @@
     </row>
     <row r="29" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
-      <c r="B29" s="137" t="s">
+      <c r="B29" s="140" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="137"/>
-      <c r="D29" s="137"/>
-      <c r="E29" s="137"/>
+      <c r="C29" s="140"/>
+      <c r="D29" s="140"/>
+      <c r="E29" s="140"/>
       <c r="F29" s="2" t="s">
         <v>86</v>
       </c>
@@ -29878,12 +29884,12 @@
     </row>
     <row r="30" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
-      <c r="B30" s="137" t="s">
+      <c r="B30" s="140" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="137"/>
-      <c r="D30" s="137"/>
-      <c r="E30" s="137"/>
+      <c r="C30" s="140"/>
+      <c r="D30" s="140"/>
+      <c r="E30" s="140"/>
       <c r="F30" s="2" t="s">
         <v>89</v>
       </c>
@@ -29905,12 +29911,12 @@
     </row>
     <row r="31" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
-      <c r="B31" s="137" t="s">
+      <c r="B31" s="140" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="137"/>
-      <c r="D31" s="137"/>
-      <c r="E31" s="137"/>
+      <c r="C31" s="140"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="140"/>
       <c r="F31" s="2" t="s">
         <v>92</v>
       </c>
@@ -30040,12 +30046,12 @@
     </row>
     <row r="36" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
-      <c r="B36" s="137" t="s">
+      <c r="B36" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="137"/>
-      <c r="D36" s="137"/>
-      <c r="E36" s="137"/>
+      <c r="C36" s="140"/>
+      <c r="D36" s="140"/>
+      <c r="E36" s="140"/>
       <c r="F36" s="2" t="s">
         <v>95</v>
       </c>
@@ -30067,10 +30073,10 @@
     </row>
     <row r="37" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
-      <c r="B37" s="137"/>
-      <c r="C37" s="137"/>
-      <c r="D37" s="137"/>
-      <c r="E37" s="137"/>
+      <c r="B37" s="140"/>
+      <c r="C37" s="140"/>
+      <c r="D37" s="140"/>
+      <c r="E37" s="140"/>
       <c r="F37" s="2"/>
       <c r="G37" s="29" t="s">
         <v>97</v>
@@ -30091,10 +30097,10 @@
     </row>
     <row r="38" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
-      <c r="B38" s="137"/>
-      <c r="C38" s="137"/>
-      <c r="D38" s="137"/>
-      <c r="E38" s="137"/>
+      <c r="B38" s="140"/>
+      <c r="C38" s="140"/>
+      <c r="D38" s="140"/>
+      <c r="E38" s="140"/>
       <c r="F38" s="2"/>
       <c r="G38" s="29" t="s">
         <v>97</v>
@@ -30130,25 +30136,25 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="154" t="s">
+      <c r="A40" s="158" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="154"/>
-      <c r="C40" s="154"/>
-      <c r="D40" s="154"/>
-      <c r="E40" s="154"/>
-      <c r="F40" s="154"/>
-      <c r="G40" s="155" t="s">
+      <c r="B40" s="158"/>
+      <c r="C40" s="158"/>
+      <c r="D40" s="158"/>
+      <c r="E40" s="158"/>
+      <c r="F40" s="158"/>
+      <c r="G40" s="157" t="s">
         <v>32</v>
       </c>
-      <c r="H40" s="155" t="s">
+      <c r="H40" s="157" t="s">
         <v>33</v>
       </c>
-      <c r="I40" s="155"/>
-      <c r="J40" s="155" t="s">
+      <c r="I40" s="157"/>
+      <c r="J40" s="157" t="s">
         <v>101</v>
       </c>
-      <c r="K40" s="156" t="s">
+      <c r="K40" s="159" t="s">
         <v>34</v>
       </c>
       <c r="L40" s="23" t="s">
@@ -30159,42 +30165,42 @@
       <c r="A41" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="155" t="s">
+      <c r="B41" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="155"/>
-      <c r="D41" s="155"/>
-      <c r="E41" s="155"/>
+      <c r="C41" s="157"/>
+      <c r="D41" s="157"/>
+      <c r="E41" s="157"/>
       <c r="F41" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="G41" s="155"/>
-      <c r="H41" s="155"/>
-      <c r="I41" s="155"/>
-      <c r="J41" s="155"/>
-      <c r="K41" s="156"/>
+      <c r="G41" s="157"/>
+      <c r="H41" s="157"/>
+      <c r="I41" s="157"/>
+      <c r="J41" s="157"/>
+      <c r="K41" s="159"/>
       <c r="L41" s="23" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="31"/>
-      <c r="B42" s="137" t="s">
+      <c r="B42" s="140" t="s">
         <v>104</v>
       </c>
-      <c r="C42" s="137"/>
-      <c r="D42" s="137"/>
-      <c r="E42" s="137"/>
+      <c r="C42" s="140"/>
+      <c r="D42" s="140"/>
+      <c r="E42" s="140"/>
       <c r="F42" s="2" t="s">
         <v>105</v>
       </c>
       <c r="G42" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="H42" s="161">
+      <c r="H42" s="154">
         <v>0.6</v>
       </c>
-      <c r="I42" s="161"/>
+      <c r="I42" s="154"/>
       <c r="J42" s="32">
         <f>COUNTIF(Funções!B$8:B$607,G42)</f>
         <v>0</v>
@@ -30210,22 +30216,22 @@
     </row>
     <row r="43" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="31"/>
-      <c r="B43" s="137" t="s">
+      <c r="B43" s="140" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="137"/>
-      <c r="D43" s="137"/>
-      <c r="E43" s="137"/>
+      <c r="C43" s="140"/>
+      <c r="D43" s="140"/>
+      <c r="E43" s="140"/>
       <c r="F43" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G43" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="H43" s="161">
+      <c r="H43" s="154">
         <v>0.6</v>
       </c>
-      <c r="I43" s="161"/>
+      <c r="I43" s="154"/>
       <c r="J43" s="32">
         <f>COUNTIF(Funções!B$8:B$607,G43)</f>
         <v>0</v>
@@ -30241,20 +30247,20 @@
     </row>
     <row r="44" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="31"/>
-      <c r="B44" s="137" t="s">
+      <c r="B44" s="140" t="s">
         <v>159</v>
       </c>
-      <c r="C44" s="137"/>
-      <c r="D44" s="137"/>
-      <c r="E44" s="137"/>
+      <c r="C44" s="140"/>
+      <c r="D44" s="140"/>
+      <c r="E44" s="140"/>
       <c r="F44" s="2"/>
       <c r="G44" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="H44" s="161">
+      <c r="H44" s="154">
         <v>0</v>
       </c>
-      <c r="I44" s="161"/>
+      <c r="I44" s="154"/>
       <c r="J44" s="32">
         <f>COUNTIF(Funções!B$8:B$607,G44)</f>
         <v>0</v>
@@ -30270,16 +30276,16 @@
     </row>
     <row r="45" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="31"/>
-      <c r="B45" s="137"/>
-      <c r="C45" s="137"/>
-      <c r="D45" s="137"/>
-      <c r="E45" s="137"/>
+      <c r="B45" s="140"/>
+      <c r="C45" s="140"/>
+      <c r="D45" s="140"/>
+      <c r="E45" s="140"/>
       <c r="F45" s="2"/>
       <c r="G45" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H45" s="161"/>
-      <c r="I45" s="161"/>
+      <c r="H45" s="154"/>
+      <c r="I45" s="154"/>
       <c r="J45" s="32">
         <f>COUNTIF(Funções!B$8:B$607,G45)</f>
         <v>0</v>
@@ -30295,16 +30301,16 @@
     </row>
     <row r="46" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="31"/>
-      <c r="B46" s="137"/>
-      <c r="C46" s="137"/>
-      <c r="D46" s="137"/>
-      <c r="E46" s="137"/>
+      <c r="B46" s="140"/>
+      <c r="C46" s="140"/>
+      <c r="D46" s="140"/>
+      <c r="E46" s="140"/>
       <c r="F46" s="2"/>
       <c r="G46" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H46" s="161"/>
-      <c r="I46" s="161"/>
+      <c r="H46" s="154"/>
+      <c r="I46" s="154"/>
       <c r="J46" s="32">
         <f>COUNTIF(Funções!B$8:B$607,G46)</f>
         <v>0</v>
@@ -30320,16 +30326,16 @@
     </row>
     <row r="47" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A47" s="31"/>
-      <c r="B47" s="137"/>
-      <c r="C47" s="137"/>
-      <c r="D47" s="137"/>
-      <c r="E47" s="137"/>
+      <c r="B47" s="140"/>
+      <c r="C47" s="140"/>
+      <c r="D47" s="140"/>
+      <c r="E47" s="140"/>
       <c r="F47" s="2"/>
       <c r="G47" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H47" s="161"/>
-      <c r="I47" s="161"/>
+      <c r="H47" s="154"/>
+      <c r="I47" s="154"/>
       <c r="J47" s="32">
         <f>COUNTIF(Funções!B$8:B$607,G47)</f>
         <v>0</v>
@@ -30345,16 +30351,16 @@
     </row>
     <row r="48" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A48" s="31"/>
-      <c r="B48" s="137"/>
-      <c r="C48" s="137"/>
-      <c r="D48" s="137"/>
-      <c r="E48" s="137"/>
+      <c r="B48" s="140"/>
+      <c r="C48" s="140"/>
+      <c r="D48" s="140"/>
+      <c r="E48" s="140"/>
       <c r="F48" s="2"/>
       <c r="G48" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H48" s="161"/>
-      <c r="I48" s="161"/>
+      <c r="H48" s="154"/>
+      <c r="I48" s="154"/>
       <c r="J48" s="32">
         <f>COUNTIF(Funções!B$8:B$607,G48)</f>
         <v>0</v>
@@ -30370,16 +30376,16 @@
     </row>
     <row r="49" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A49" s="31"/>
-      <c r="B49" s="137"/>
-      <c r="C49" s="137"/>
-      <c r="D49" s="137"/>
-      <c r="E49" s="137"/>
+      <c r="B49" s="140"/>
+      <c r="C49" s="140"/>
+      <c r="D49" s="140"/>
+      <c r="E49" s="140"/>
       <c r="F49" s="2"/>
       <c r="G49" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H49" s="161"/>
-      <c r="I49" s="161"/>
+      <c r="H49" s="154"/>
+      <c r="I49" s="154"/>
       <c r="J49" s="32">
         <f>COUNTIF(Funções!B$8:B$607,G49)</f>
         <v>0</v>
@@ -30395,16 +30401,16 @@
     </row>
     <row r="50" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A50" s="31"/>
-      <c r="B50" s="137"/>
-      <c r="C50" s="137"/>
-      <c r="D50" s="137"/>
-      <c r="E50" s="137"/>
+      <c r="B50" s="140"/>
+      <c r="C50" s="140"/>
+      <c r="D50" s="140"/>
+      <c r="E50" s="140"/>
       <c r="F50" s="2"/>
       <c r="G50" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H50" s="161"/>
-      <c r="I50" s="161"/>
+      <c r="H50" s="154"/>
+      <c r="I50" s="154"/>
       <c r="J50" s="32">
         <f>COUNTIF(Funções!B$8:B$607,G50)</f>
         <v>0</v>
@@ -30420,16 +30426,16 @@
     </row>
     <row r="51" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A51" s="31"/>
-      <c r="B51" s="137"/>
-      <c r="C51" s="137"/>
-      <c r="D51" s="137"/>
-      <c r="E51" s="137"/>
+      <c r="B51" s="140"/>
+      <c r="C51" s="140"/>
+      <c r="D51" s="140"/>
+      <c r="E51" s="140"/>
       <c r="F51" s="2"/>
       <c r="G51" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H51" s="161"/>
-      <c r="I51" s="161"/>
+      <c r="H51" s="154"/>
+      <c r="I51" s="154"/>
       <c r="J51" s="32">
         <f>COUNTIF(Funções!B$8:B$607,G51)</f>
         <v>0</v>
@@ -30445,16 +30451,16 @@
     </row>
     <row r="52" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A52" s="31"/>
-      <c r="B52" s="137"/>
-      <c r="C52" s="137"/>
-      <c r="D52" s="137"/>
-      <c r="E52" s="137"/>
+      <c r="B52" s="140"/>
+      <c r="C52" s="140"/>
+      <c r="D52" s="140"/>
+      <c r="E52" s="140"/>
       <c r="F52" s="2"/>
       <c r="G52" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H52" s="161"/>
-      <c r="I52" s="161"/>
+      <c r="H52" s="154"/>
+      <c r="I52" s="154"/>
       <c r="J52" s="32">
         <f>COUNTIF(Funções!B$8:B$607,G52)</f>
         <v>0</v>
@@ -30470,16 +30476,16 @@
     </row>
     <row r="53" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A53" s="31"/>
-      <c r="B53" s="137"/>
-      <c r="C53" s="137"/>
-      <c r="D53" s="137"/>
-      <c r="E53" s="137"/>
+      <c r="B53" s="140"/>
+      <c r="C53" s="140"/>
+      <c r="D53" s="140"/>
+      <c r="E53" s="140"/>
       <c r="F53" s="2"/>
       <c r="G53" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H53" s="161"/>
-      <c r="I53" s="161"/>
+      <c r="H53" s="154"/>
+      <c r="I53" s="154"/>
       <c r="J53" s="32">
         <f>COUNTIF(Funções!B$8:B$607,G53)</f>
         <v>0</v>
@@ -30495,16 +30501,16 @@
     </row>
     <row r="54" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A54" s="31"/>
-      <c r="B54" s="137"/>
-      <c r="C54" s="137"/>
-      <c r="D54" s="137"/>
-      <c r="E54" s="137"/>
+      <c r="B54" s="140"/>
+      <c r="C54" s="140"/>
+      <c r="D54" s="140"/>
+      <c r="E54" s="140"/>
       <c r="F54" s="2"/>
       <c r="G54" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H54" s="161"/>
-      <c r="I54" s="161"/>
+      <c r="H54" s="154"/>
+      <c r="I54" s="154"/>
       <c r="J54" s="32">
         <f>COUNTIF(Funções!B$8:B$607,G54)</f>
         <v>0</v>
@@ -30520,16 +30526,16 @@
     </row>
     <row r="55" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A55" s="31"/>
-      <c r="B55" s="137"/>
-      <c r="C55" s="137"/>
-      <c r="D55" s="137"/>
-      <c r="E55" s="137"/>
+      <c r="B55" s="140"/>
+      <c r="C55" s="140"/>
+      <c r="D55" s="140"/>
+      <c r="E55" s="140"/>
       <c r="F55" s="2"/>
       <c r="G55" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H55" s="161"/>
-      <c r="I55" s="161"/>
+      <c r="H55" s="154"/>
+      <c r="I55" s="154"/>
       <c r="J55" s="32">
         <f>COUNTIF(Funções!B$8:B$607,G55)</f>
         <v>0</v>
@@ -30545,16 +30551,16 @@
     </row>
     <row r="56" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A56" s="31"/>
-      <c r="B56" s="137"/>
-      <c r="C56" s="137"/>
-      <c r="D56" s="137"/>
-      <c r="E56" s="137"/>
+      <c r="B56" s="140"/>
+      <c r="C56" s="140"/>
+      <c r="D56" s="140"/>
+      <c r="E56" s="140"/>
       <c r="F56" s="2"/>
       <c r="G56" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H56" s="161"/>
-      <c r="I56" s="161"/>
+      <c r="H56" s="154"/>
+      <c r="I56" s="154"/>
       <c r="J56" s="32">
         <f>COUNTIF(Funções!B$8:B$607,G56)</f>
         <v>0</v>
@@ -30570,16 +30576,16 @@
     </row>
     <row r="57" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A57" s="31"/>
-      <c r="B57" s="137"/>
-      <c r="C57" s="137"/>
-      <c r="D57" s="137"/>
-      <c r="E57" s="137"/>
+      <c r="B57" s="140"/>
+      <c r="C57" s="140"/>
+      <c r="D57" s="140"/>
+      <c r="E57" s="140"/>
       <c r="F57" s="2"/>
       <c r="G57" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H57" s="161"/>
-      <c r="I57" s="161"/>
+      <c r="H57" s="154"/>
+      <c r="I57" s="154"/>
       <c r="J57" s="32">
         <f>COUNTIF(Funções!B$8:B$607,G57)</f>
         <v>0</v>
@@ -30595,16 +30601,16 @@
     </row>
     <row r="58" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A58" s="31"/>
-      <c r="B58" s="137"/>
-      <c r="C58" s="137"/>
-      <c r="D58" s="137"/>
-      <c r="E58" s="137"/>
+      <c r="B58" s="140"/>
+      <c r="C58" s="140"/>
+      <c r="D58" s="140"/>
+      <c r="E58" s="140"/>
       <c r="F58" s="2"/>
       <c r="G58" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H58" s="161"/>
-      <c r="I58" s="161"/>
+      <c r="H58" s="154"/>
+      <c r="I58" s="154"/>
       <c r="J58" s="32">
         <f>COUNTIF(Funções!B$8:B$607,G58)</f>
         <v>0</v>
@@ -30620,16 +30626,16 @@
     </row>
     <row r="59" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A59" s="31"/>
-      <c r="B59" s="137"/>
-      <c r="C59" s="137"/>
-      <c r="D59" s="137"/>
-      <c r="E59" s="137"/>
+      <c r="B59" s="140"/>
+      <c r="C59" s="140"/>
+      <c r="D59" s="140"/>
+      <c r="E59" s="140"/>
       <c r="F59" s="2"/>
       <c r="G59" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H59" s="161"/>
-      <c r="I59" s="161"/>
+      <c r="H59" s="154"/>
+      <c r="I59" s="154"/>
       <c r="J59" s="32">
         <f>COUNTIF(Funções!B$8:B$607,G59)</f>
         <v>0</v>
@@ -30645,16 +30651,16 @@
     </row>
     <row r="60" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A60" s="31"/>
-      <c r="B60" s="137"/>
-      <c r="C60" s="137"/>
-      <c r="D60" s="137"/>
-      <c r="E60" s="137"/>
+      <c r="B60" s="140"/>
+      <c r="C60" s="140"/>
+      <c r="D60" s="140"/>
+      <c r="E60" s="140"/>
       <c r="F60" s="2"/>
       <c r="G60" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H60" s="161"/>
-      <c r="I60" s="161"/>
+      <c r="H60" s="154"/>
+      <c r="I60" s="154"/>
       <c r="J60" s="32">
         <f>COUNTIF(Funções!B$8:B$607,G60)</f>
         <v>0</v>
@@ -30670,16 +30676,16 @@
     </row>
     <row r="61" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A61" s="31"/>
-      <c r="B61" s="137"/>
-      <c r="C61" s="137"/>
-      <c r="D61" s="137"/>
-      <c r="E61" s="137"/>
+      <c r="B61" s="140"/>
+      <c r="C61" s="140"/>
+      <c r="D61" s="140"/>
+      <c r="E61" s="140"/>
       <c r="F61" s="2"/>
       <c r="G61" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H61" s="161"/>
-      <c r="I61" s="161"/>
+      <c r="H61" s="154"/>
+      <c r="I61" s="154"/>
       <c r="J61" s="32">
         <f>COUNTIF(Funções!B$8:B$607,G61)</f>
         <v>0</v>
@@ -30695,16 +30701,16 @@
     </row>
     <row r="62" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A62" s="31"/>
-      <c r="B62" s="137"/>
-      <c r="C62" s="137"/>
-      <c r="D62" s="137"/>
-      <c r="E62" s="137"/>
+      <c r="B62" s="140"/>
+      <c r="C62" s="140"/>
+      <c r="D62" s="140"/>
+      <c r="E62" s="140"/>
       <c r="F62" s="2"/>
       <c r="G62" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H62" s="161"/>
-      <c r="I62" s="161"/>
+      <c r="H62" s="154"/>
+      <c r="I62" s="154"/>
       <c r="J62" s="32">
         <f>COUNTIF(Funções!B$8:B$607,G62)</f>
         <v>0</v>
@@ -30720,16 +30726,16 @@
     </row>
     <row r="63" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A63" s="31"/>
-      <c r="B63" s="137"/>
-      <c r="C63" s="137"/>
-      <c r="D63" s="137"/>
-      <c r="E63" s="137"/>
+      <c r="B63" s="140"/>
+      <c r="C63" s="140"/>
+      <c r="D63" s="140"/>
+      <c r="E63" s="140"/>
       <c r="F63" s="2"/>
       <c r="G63" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H63" s="161"/>
-      <c r="I63" s="161"/>
+      <c r="H63" s="154"/>
+      <c r="I63" s="154"/>
       <c r="J63" s="32">
         <f>COUNTIF(Funções!B$8:B$607,G63)</f>
         <v>0</v>
@@ -30745,16 +30751,16 @@
     </row>
     <row r="64" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A64" s="33"/>
-      <c r="B64" s="162"/>
-      <c r="C64" s="162"/>
-      <c r="D64" s="162"/>
-      <c r="E64" s="162"/>
+      <c r="B64" s="155"/>
+      <c r="C64" s="155"/>
+      <c r="D64" s="155"/>
+      <c r="E64" s="155"/>
       <c r="F64" s="34"/>
       <c r="G64" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="H64" s="163"/>
-      <c r="I64" s="163"/>
+      <c r="H64" s="156"/>
+      <c r="I64" s="156"/>
       <c r="J64" s="36">
         <f>COUNTIF(Funções!B$8:B$607,G64)</f>
         <v>0</v>
@@ -30771,6 +30777,86 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="90">
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H40:I41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="H59:I59"/>
     <mergeCell ref="B63:E63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="B64:E64"/>
@@ -30781,86 +30867,6 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="B62:E62"/>
     <mergeCell ref="H62:I62"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H40:I41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.023611111111111" bottom="1.023611111111111" header="0.51180555555555551" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" scale="48" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -30899,148 +30905,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="143" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="132"/>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
+      <c r="A2" s="143"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="132"/>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="132"/>
+      <c r="A3" s="143"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="166" t="str">
+      <c r="A4" s="169" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v>Aplicação : Doggis</v>
       </c>
-      <c r="B4" s="166"/>
-      <c r="C4" s="166"/>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
-      <c r="F4" s="152" t="str">
+      <c r="B4" s="169"/>
+      <c r="C4" s="169"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="146" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v>Projeto : Doggis</v>
       </c>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="152"/>
-      <c r="L4" s="152"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="146"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="166" t="str">
+      <c r="A5" s="169" t="str">
         <f>Contagem!A9&amp;" : "&amp;Contagem!F9</f>
         <v>Responsável : Adelaide Antunes</v>
       </c>
-      <c r="B5" s="166"/>
-      <c r="C5" s="166"/>
-      <c r="D5" s="166"/>
-      <c r="E5" s="166"/>
-      <c r="F5" s="152" t="str">
+      <c r="B5" s="169"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="146" t="str">
         <f>Contagem!A10&amp;" : "&amp;Contagem!F10</f>
         <v>Revisor : Adelaide Antunes</v>
       </c>
-      <c r="G5" s="152"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="152"/>
-      <c r="K5" s="152"/>
-      <c r="L5" s="152"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="146"/>
+      <c r="L5" s="146"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="166" t="str">
+      <c r="A6" s="169" t="str">
         <f>Contagem!A4&amp;" : "&amp;Contagem!F4</f>
         <v>Empresa : Petshop Adelaide</v>
       </c>
-      <c r="B6" s="166"/>
-      <c r="C6" s="166"/>
-      <c r="D6" s="166"/>
-      <c r="E6" s="166"/>
-      <c r="F6" s="152" t="str">
+      <c r="B6" s="169"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="146" t="str">
         <f>"Tipo de Contagem : "&amp;Contagem!F6</f>
         <v>Tipo de Contagem : Aplicação</v>
       </c>
-      <c r="G6" s="152"/>
-      <c r="H6" s="152"/>
-      <c r="I6" s="152"/>
-      <c r="J6" s="152"/>
-      <c r="K6" s="152"/>
-      <c r="L6" s="152"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="146"/>
     </row>
     <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="168" t="s">
+      <c r="A7" s="165" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="168"/>
-      <c r="C7" s="169" t="s">
+      <c r="B7" s="165"/>
+      <c r="C7" s="166" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="169"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="164" t="s">
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="167" t="s">
         <v>121</v>
       </c>
-      <c r="H7" s="164" t="s">
+      <c r="H7" s="167" t="s">
         <v>122</v>
       </c>
       <c r="I7" s="73"/>
-      <c r="J7" s="164" t="s">
+      <c r="J7" s="167" t="s">
         <v>123</v>
       </c>
-      <c r="K7" s="164"/>
-      <c r="L7" s="165" t="s">
+      <c r="K7" s="167"/>
+      <c r="L7" s="168" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="168"/>
-      <c r="B8" s="168"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="164"/>
-      <c r="H8" s="164"/>
+      <c r="A8" s="165"/>
+      <c r="B8" s="165"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="167"/>
+      <c r="H8" s="167"/>
       <c r="I8" s="74"/>
-      <c r="J8" s="164"/>
-      <c r="K8" s="164"/>
-      <c r="L8" s="165"/>
+      <c r="J8" s="167"/>
+      <c r="K8" s="167"/>
+      <c r="L8" s="168"/>
     </row>
     <row r="9" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="51"/>
@@ -31893,13 +31899,13 @@
     </row>
     <row r="45" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A45" s="61"/>
-      <c r="B45" s="167" t="s">
+      <c r="B45" s="164" t="s">
         <v>136</v>
       </c>
-      <c r="C45" s="167"/>
-      <c r="D45" s="167"/>
-      <c r="E45" s="167"/>
-      <c r="F45" s="167"/>
+      <c r="C45" s="164"/>
+      <c r="D45" s="164"/>
+      <c r="E45" s="164"/>
+      <c r="F45" s="164"/>
       <c r="G45" s="56">
         <f>SUM(G14+G21+G28+G35+G42)</f>
         <v>220</v>
@@ -31912,13 +31918,13 @@
     </row>
     <row r="46" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A46" s="61"/>
-      <c r="B46" s="167" t="s">
+      <c r="B46" s="164" t="s">
         <v>137</v>
       </c>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
-      <c r="E46" s="167"/>
-      <c r="F46" s="167"/>
+      <c r="C46" s="164"/>
+      <c r="D46" s="164"/>
+      <c r="E46" s="164"/>
+      <c r="F46" s="164"/>
       <c r="G46" s="56">
         <f>(C10+C11+C12)*4+(C17+C18+C19)*5+(C24+C25+C26)*4+(C31+C32+C33)*7+(C38+C39+C40)*5</f>
         <v>220</v>
@@ -31931,13 +31937,13 @@
     </row>
     <row r="47" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A47" s="61"/>
-      <c r="B47" s="167" t="s">
+      <c r="B47" s="164" t="s">
         <v>138</v>
       </c>
-      <c r="C47" s="167"/>
-      <c r="D47" s="167"/>
-      <c r="E47" s="167"/>
-      <c r="F47" s="167"/>
+      <c r="C47" s="164"/>
+      <c r="D47" s="164"/>
+      <c r="E47" s="164"/>
+      <c r="F47" s="164"/>
       <c r="G47" s="56">
         <f>(C31+C32+C33)*35+(C38+C39+C40)*15</f>
         <v>280</v>
@@ -32021,11 +32027,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="16">
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:F8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="J7:K8"/>
     <mergeCell ref="L7:L8"/>
@@ -32037,6 +32038,11 @@
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="F6:L6"/>
     <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:F8"/>
   </mergeCells>
   <pageMargins left="0.51180555555555551" right="0.51180555555555551" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555551" footer="0.31527777777777777"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -32076,114 +32082,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="143" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="132"/>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132"/>
+      <c r="A2" s="143"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="132"/>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="132"/>
-      <c r="M3" s="132"/>
+      <c r="A3" s="143"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="143"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="166" t="str">
+      <c r="A4" s="169" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v>Aplicação : Doggis</v>
       </c>
-      <c r="B4" s="166"/>
-      <c r="C4" s="166"/>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
-      <c r="F4" s="152" t="str">
+      <c r="B4" s="169"/>
+      <c r="C4" s="169"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="146" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v>Projeto : Doggis</v>
       </c>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="152"/>
-      <c r="L4" s="152"/>
-      <c r="M4" s="152"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="146"/>
+      <c r="M4" s="146"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="170" t="str">
+      <c r="A5" s="171" t="str">
         <f>Contagem!A9&amp;" : "&amp;Contagem!F9</f>
         <v>Responsável : Adelaide Antunes</v>
       </c>
-      <c r="B5" s="170"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="152" t="str">
+      <c r="B5" s="171"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="146" t="str">
         <f>Contagem!A10&amp;" : "&amp;Contagem!F10</f>
         <v>Revisor : Adelaide Antunes</v>
       </c>
-      <c r="G5" s="152"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="152"/>
-      <c r="K5" s="152"/>
-      <c r="L5" s="152"/>
-      <c r="M5" s="152"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="146"/>
+      <c r="L5" s="146"/>
+      <c r="M5" s="146"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="170" t="str">
+      <c r="A6" s="171" t="str">
         <f>Contagem!A4&amp;" : "&amp;Contagem!F4</f>
         <v>Empresa : Petshop Adelaide</v>
       </c>
-      <c r="B6" s="170"/>
-      <c r="C6" s="170"/>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="152" t="str">
+      <c r="B6" s="171"/>
+      <c r="C6" s="171"/>
+      <c r="D6" s="171"/>
+      <c r="E6" s="171"/>
+      <c r="F6" s="146" t="str">
         <f>"Tipo de Contagem : "&amp;Contagem!F6</f>
         <v>Tipo de Contagem : Aplicação</v>
       </c>
-      <c r="G6" s="152"/>
-      <c r="H6" s="152"/>
-      <c r="I6" s="152"/>
-      <c r="J6" s="152"/>
-      <c r="K6" s="152"/>
-      <c r="L6" s="152"/>
-      <c r="M6" s="152"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="146"/>
+      <c r="M6" s="146"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="88"/>
@@ -32202,14 +32208,14 @@
     </row>
     <row r="8" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A8" s="88"/>
-      <c r="B8" s="171"/>
-      <c r="C8" s="171"/>
-      <c r="D8" s="171"/>
-      <c r="E8" s="171"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="171"/>
-      <c r="H8" s="171"/>
-      <c r="I8" s="171"/>
+      <c r="B8" s="172"/>
+      <c r="C8" s="172"/>
+      <c r="D8" s="172"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="172"/>
+      <c r="H8" s="172"/>
+      <c r="I8" s="172"/>
       <c r="J8" s="65"/>
       <c r="K8" s="65"/>
       <c r="L8" s="65"/>
@@ -32217,11 +32223,11 @@
     </row>
     <row r="9" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A9" s="88"/>
-      <c r="B9" s="172" t="s">
+      <c r="B9" s="173" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="173"/>
       <c r="E9" s="41" t="s">
         <v>101</v>
       </c>
@@ -32246,11 +32252,11 @@
     </row>
     <row r="10" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="88"/>
-      <c r="B10" s="137" t="str">
+      <c r="B10" s="140" t="str">
         <f>""&amp;Deflatores!B4</f>
         <v>Inclusão</v>
       </c>
-      <c r="C10" s="137"/>
+      <c r="C10" s="140"/>
       <c r="D10" s="29" t="str">
         <f>""&amp;Deflatores!G4</f>
         <v>I</v>
@@ -32287,11 +32293,11 @@
     </row>
     <row r="11" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="88"/>
-      <c r="B11" s="137" t="str">
+      <c r="B11" s="140" t="str">
         <f>""&amp;Deflatores!B5</f>
         <v>Alteração (sem conhecimento do Fator de Impacto)</v>
       </c>
-      <c r="C11" s="137"/>
+      <c r="C11" s="140"/>
       <c r="D11" s="29" t="str">
         <f>""&amp;Deflatores!G5</f>
         <v>A</v>
@@ -32329,11 +32335,11 @@
     </row>
     <row r="12" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="88"/>
-      <c r="B12" s="137" t="str">
+      <c r="B12" s="140" t="str">
         <f>""&amp;Deflatores!B6</f>
         <v>Exclusão</v>
       </c>
-      <c r="C12" s="137"/>
+      <c r="C12" s="140"/>
       <c r="D12" s="29" t="str">
         <f>""&amp;Deflatores!G6</f>
         <v>E</v>
@@ -32368,11 +32374,11 @@
     </row>
     <row r="13" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="88"/>
-      <c r="B13" s="137" t="str">
+      <c r="B13" s="140" t="str">
         <f>""&amp;Deflatores!B7</f>
         <v>Alteração (50%) de função desenvolvida ou já alterada pela empresa atual</v>
       </c>
-      <c r="C13" s="137"/>
+      <c r="C13" s="140"/>
       <c r="D13" s="29" t="str">
         <f>""&amp;Deflatores!G7</f>
         <v>A50</v>
@@ -32409,11 +32415,11 @@
     </row>
     <row r="14" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="88"/>
-      <c r="B14" s="137" t="str">
+      <c r="B14" s="140" t="str">
         <f>""&amp;Deflatores!B8</f>
         <v>Alteração (75%) de função não desenv. e ainda não alterada pela empresa atual</v>
       </c>
-      <c r="C14" s="137"/>
+      <c r="C14" s="140"/>
       <c r="D14" s="29" t="str">
         <f>""&amp;Deflatores!G8</f>
         <v>A75</v>
@@ -32451,11 +32457,11 @@
     </row>
     <row r="15" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="88"/>
-      <c r="B15" s="137" t="str">
+      <c r="B15" s="140" t="str">
         <f>""&amp;Deflatores!B9</f>
         <v>Alteração (75%+15%): o mesmo acima + redocumentar a função</v>
       </c>
-      <c r="C15" s="137"/>
+      <c r="C15" s="140"/>
       <c r="D15" s="29" t="str">
         <f>""&amp;Deflatores!G9</f>
         <v>A90</v>
@@ -32490,11 +32496,11 @@
     </row>
     <row r="16" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="88"/>
-      <c r="B16" s="137" t="str">
+      <c r="B16" s="140" t="str">
         <f>""&amp;Deflatores!B10</f>
         <v>Migração de Dados</v>
       </c>
-      <c r="C16" s="137"/>
+      <c r="C16" s="140"/>
       <c r="D16" s="29" t="str">
         <f>""&amp;Deflatores!G10</f>
         <v>PMD</v>
@@ -32529,11 +32535,11 @@
     </row>
     <row r="17" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="88"/>
-      <c r="B17" s="137" t="str">
+      <c r="B17" s="140" t="str">
         <f>""&amp;Deflatores!B11</f>
         <v>Corretiva (sem conhecimento do Fator de Impacto)</v>
       </c>
-      <c r="C17" s="137"/>
+      <c r="C17" s="140"/>
       <c r="D17" s="29" t="str">
         <f>""&amp;Deflatores!G11</f>
         <v>COR</v>
@@ -32568,11 +32574,11 @@
     </row>
     <row r="18" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="88"/>
-      <c r="B18" s="137" t="str">
+      <c r="B18" s="140" t="str">
         <f>""&amp;Deflatores!B12</f>
         <v>Corretiva (50%) - Fora da garantia (mesma empresa)</v>
       </c>
-      <c r="C18" s="137"/>
+      <c r="C18" s="140"/>
       <c r="D18" s="29" t="str">
         <f>""&amp;Deflatores!G12</f>
         <v>COR50</v>
@@ -32607,11 +32613,11 @@
     </row>
     <row r="19" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="88"/>
-      <c r="B19" s="137" t="str">
+      <c r="B19" s="140" t="str">
         <f>""&amp;Deflatores!B13</f>
         <v>Corretiva (75%) - Fora da garantia (outra empresa)</v>
       </c>
-      <c r="C19" s="137"/>
+      <c r="C19" s="140"/>
       <c r="D19" s="29" t="str">
         <f>""&amp;Deflatores!G13</f>
         <v>COR75</v>
@@ -32646,11 +32652,11 @@
     </row>
     <row r="20" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="88"/>
-      <c r="B20" s="137" t="str">
+      <c r="B20" s="140" t="str">
         <f>""&amp;Deflatores!B14</f>
         <v>Corretiva (75%+15%) - Fora da garantia (outra empresa) + Redocumentação</v>
       </c>
-      <c r="C20" s="137"/>
+      <c r="C20" s="140"/>
       <c r="D20" s="29" t="str">
         <f>""&amp;Deflatores!G14</f>
         <v>COR90</v>
@@ -32685,11 +32691,11 @@
     </row>
     <row r="21" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="88"/>
-      <c r="B21" s="137" t="str">
+      <c r="B21" s="140" t="str">
         <f>""&amp;Deflatores!B15</f>
         <v>Corretiva em Garantia</v>
       </c>
-      <c r="C21" s="137"/>
+      <c r="C21" s="140"/>
       <c r="D21" s="29" t="str">
         <f>""&amp;Deflatores!G15</f>
         <v>GAR</v>
@@ -32724,11 +32730,11 @@
     </row>
     <row r="22" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="88"/>
-      <c r="B22" s="137" t="str">
+      <c r="B22" s="140" t="str">
         <f>""&amp;Deflatores!B16</f>
         <v>Mudança de Plataforma - Linguagem de Programação</v>
       </c>
-      <c r="C22" s="137"/>
+      <c r="C22" s="140"/>
       <c r="D22" s="29" t="str">
         <f>""&amp;Deflatores!G16</f>
         <v>MLP</v>
@@ -32763,11 +32769,11 @@
     </row>
     <row r="23" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="88"/>
-      <c r="B23" s="137" t="str">
+      <c r="B23" s="140" t="str">
         <f>""&amp;Deflatores!B17</f>
         <v>Mudança de Plataforma - Banco de Dados (outro paradigma)</v>
       </c>
-      <c r="C23" s="137"/>
+      <c r="C23" s="140"/>
       <c r="D23" s="29" t="str">
         <f>""&amp;Deflatores!G17</f>
         <v>MBO</v>
@@ -32802,11 +32808,11 @@
     </row>
     <row r="24" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="88"/>
-      <c r="B24" s="137" t="str">
+      <c r="B24" s="140" t="str">
         <f>""&amp;Deflatores!B18</f>
         <v>Mudança de Plataforma - Banco de Dados (mesmo paradigma com alterações)</v>
       </c>
-      <c r="C24" s="137"/>
+      <c r="C24" s="140"/>
       <c r="D24" s="29" t="str">
         <f>""&amp;Deflatores!G18</f>
         <v>MBM</v>
@@ -32841,11 +32847,11 @@
     </row>
     <row r="25" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="88"/>
-      <c r="B25" s="137" t="str">
+      <c r="B25" s="140" t="str">
         <f>""&amp;Deflatores!B19</f>
         <v>Atualização de Versão – Linguagem de Programação</v>
       </c>
-      <c r="C25" s="137"/>
+      <c r="C25" s="140"/>
       <c r="D25" s="29" t="str">
         <f>""&amp;Deflatores!G19</f>
         <v>ALP</v>
@@ -32880,11 +32886,11 @@
     </row>
     <row r="26" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="88"/>
-      <c r="B26" s="137" t="str">
+      <c r="B26" s="140" t="str">
         <f>""&amp;Deflatores!B20</f>
         <v>Atualização de Versão – Browser</v>
       </c>
-      <c r="C26" s="137"/>
+      <c r="C26" s="140"/>
       <c r="D26" s="29" t="str">
         <f>""&amp;Deflatores!G20</f>
         <v>AVB</v>
@@ -32919,11 +32925,11 @@
     </row>
     <row r="27" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="88"/>
-      <c r="B27" s="137" t="str">
+      <c r="B27" s="140" t="str">
         <f>""&amp;Deflatores!B21</f>
         <v>Atualização de Versão – Banco de Dados</v>
       </c>
-      <c r="C27" s="137"/>
+      <c r="C27" s="140"/>
       <c r="D27" s="29" t="str">
         <f>""&amp;Deflatores!G21</f>
         <v>ABD</v>
@@ -32958,11 +32964,11 @@
     </row>
     <row r="28" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="88"/>
-      <c r="B28" s="137" t="str">
+      <c r="B28" s="140" t="str">
         <f>""&amp;Deflatores!B22</f>
         <v>Manutenção Cosmética</v>
       </c>
-      <c r="C28" s="137"/>
+      <c r="C28" s="140"/>
       <c r="D28" s="29" t="str">
         <f>""&amp;Deflatores!G22</f>
         <v>COS</v>
@@ -32997,12 +33003,12 @@
     </row>
     <row r="29" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="88"/>
-      <c r="B29" s="157" t="str">
+      <c r="B29" s="160" t="str">
         <f>""&amp;Deflatores!B23</f>
         <v>Adaptação em Funcionalidades sem Alteração de Requisitos Funcionais
 (sem conhecimento do Fator de Impacto)</v>
       </c>
-      <c r="C29" s="159"/>
+      <c r="C29" s="162"/>
       <c r="D29" s="29" t="str">
         <f>""&amp;Deflatores!G23</f>
         <v>ARN</v>
@@ -33037,12 +33043,12 @@
     </row>
     <row r="30" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="88"/>
-      <c r="B30" s="157" t="str">
+      <c r="B30" s="160" t="str">
         <f>""&amp;Deflatores!B24</f>
         <v>Adaptação em Funcionalidades sem Alteração de Requisitos Funcionais (50%)
 (em função desenvolvida ou já alterada pela empresa atual)</v>
       </c>
-      <c r="C30" s="159"/>
+      <c r="C30" s="162"/>
       <c r="D30" s="29" t="str">
         <f>""&amp;Deflatores!G24</f>
         <v>ARN50</v>
@@ -33077,12 +33083,12 @@
     </row>
     <row r="31" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="88"/>
-      <c r="B31" s="157" t="str">
+      <c r="B31" s="160" t="str">
         <f>""&amp;Deflatores!B25</f>
         <v>Adaptação em Funcionalidades sem Alteração de Requisitos Funcionais (75%)
 (em função não desenvolvida e ainda não alterada pela empresa atual)</v>
       </c>
-      <c r="C31" s="159"/>
+      <c r="C31" s="162"/>
       <c r="D31" s="29" t="str">
         <f>""&amp;Deflatores!G25</f>
         <v>ARN75</v>
@@ -33117,11 +33123,11 @@
     </row>
     <row r="32" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="88"/>
-      <c r="B32" s="137" t="str">
+      <c r="B32" s="140" t="str">
         <f>""&amp;Deflatores!B26</f>
         <v>Atualização de Dados sem Consulta Prévia</v>
       </c>
-      <c r="C32" s="137"/>
+      <c r="C32" s="140"/>
       <c r="D32" s="29" t="str">
         <f>""&amp;Deflatores!G26</f>
         <v>ADS</v>
@@ -33156,11 +33162,11 @@
     </row>
     <row r="33" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="88"/>
-      <c r="B33" s="137" t="str">
+      <c r="B33" s="140" t="str">
         <f>""&amp;Deflatores!B27</f>
         <v>Consulta Prévia sem Atualização</v>
       </c>
-      <c r="C33" s="137"/>
+      <c r="C33" s="140"/>
       <c r="D33" s="29" t="str">
         <f>""&amp;Deflatores!G27</f>
         <v>CPA</v>
@@ -33195,11 +33201,11 @@
     </row>
     <row r="34" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="88"/>
-      <c r="B34" s="137" t="str">
+      <c r="B34" s="140" t="str">
         <f>""&amp;Deflatores!B28</f>
         <v>Atualização de Dados com Consulta Prévia</v>
       </c>
-      <c r="C34" s="137"/>
+      <c r="C34" s="140"/>
       <c r="D34" s="29" t="str">
         <f>""&amp;Deflatores!G28</f>
         <v>ADC</v>
@@ -33234,11 +33240,11 @@
     </row>
     <row r="35" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="88"/>
-      <c r="B35" s="137" t="str">
+      <c r="B35" s="140" t="str">
         <f>""&amp;Deflatores!B29</f>
         <v>Apuração Especial – Geração de Relatórios</v>
       </c>
-      <c r="C35" s="137"/>
+      <c r="C35" s="140"/>
       <c r="D35" s="29" t="str">
         <f>""&amp;Deflatores!G29</f>
         <v>AGR</v>
@@ -33273,11 +33279,11 @@
     </row>
     <row r="36" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="88"/>
-      <c r="B36" s="137" t="str">
+      <c r="B36" s="140" t="str">
         <f>""&amp;Deflatores!B30</f>
         <v>Apuração Especial – Reexecução</v>
       </c>
-      <c r="C36" s="137"/>
+      <c r="C36" s="140"/>
       <c r="D36" s="29" t="str">
         <f>""&amp;Deflatores!G30</f>
         <v>AER</v>
@@ -33312,11 +33318,11 @@
     </row>
     <row r="37" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="88"/>
-      <c r="B37" s="137" t="str">
+      <c r="B37" s="140" t="str">
         <f>""&amp;Deflatores!B31</f>
         <v>Atualização de Dados</v>
       </c>
-      <c r="C37" s="137"/>
+      <c r="C37" s="140"/>
       <c r="D37" s="29" t="str">
         <f>""&amp;Deflatores!G31</f>
         <v>ATD</v>
@@ -33351,11 +33357,11 @@
     </row>
     <row r="38" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="88"/>
-      <c r="B38" s="137" t="str">
+      <c r="B38" s="140" t="str">
         <f>""&amp;Deflatores!B32</f>
         <v>Manutenção de Documentação de Sistemas Legados</v>
       </c>
-      <c r="C38" s="137"/>
+      <c r="C38" s="140"/>
       <c r="D38" s="29" t="str">
         <f>""&amp;Deflatores!G32</f>
         <v>MSL</v>
@@ -33390,11 +33396,11 @@
     </row>
     <row r="39" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="88"/>
-      <c r="B39" s="137" t="str">
+      <c r="B39" s="140" t="str">
         <f>""&amp;Deflatores!B33</f>
         <v>Verificação de Erros (Sem Documentação de Teste existente)</v>
       </c>
-      <c r="C39" s="137"/>
+      <c r="C39" s="140"/>
       <c r="D39" s="29" t="str">
         <f>""&amp;Deflatores!G33</f>
         <v>VES</v>
@@ -33429,11 +33435,11 @@
     </row>
     <row r="40" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="88"/>
-      <c r="B40" s="137" t="str">
+      <c r="B40" s="140" t="str">
         <f>""&amp;Deflatores!B34</f>
         <v>Verificação de Erros (Com Documentação de Teste existente)</v>
       </c>
-      <c r="C40" s="137"/>
+      <c r="C40" s="140"/>
       <c r="D40" s="29" t="str">
         <f>""&amp;Deflatores!G34</f>
         <v>VEC</v>
@@ -33468,11 +33474,11 @@
     </row>
     <row r="41" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="88"/>
-      <c r="B41" s="137" t="str">
+      <c r="B41" s="140" t="str">
         <f>""&amp;Deflatores!B35</f>
         <v>Pontos de Função de Teste</v>
       </c>
-      <c r="C41" s="137"/>
+      <c r="C41" s="140"/>
       <c r="D41" s="29" t="str">
         <f>""&amp;Deflatores!G35</f>
         <v>PFT</v>
@@ -33507,11 +33513,11 @@
     </row>
     <row r="42" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="88"/>
-      <c r="B42" s="137" t="str">
+      <c r="B42" s="140" t="str">
         <f>""&amp;Deflatores!B36</f>
         <v>Componente Interno Reusável</v>
       </c>
-      <c r="C42" s="137"/>
+      <c r="C42" s="140"/>
       <c r="D42" s="29" t="str">
         <f>""&amp;Deflatores!G36</f>
         <v>CIR</v>
@@ -33546,11 +33552,11 @@
     </row>
     <row r="43" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="88"/>
-      <c r="B43" s="137" t="str">
+      <c r="B43" s="140" t="str">
         <f>""&amp;Deflatores!B37</f>
         <v/>
       </c>
-      <c r="C43" s="137"/>
+      <c r="C43" s="140"/>
       <c r="D43" s="29" t="str">
         <f>""&amp;Deflatores!G37</f>
         <v xml:space="preserve">           .</v>
@@ -33585,11 +33591,11 @@
     </row>
     <row r="44" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="88"/>
-      <c r="B44" s="137" t="str">
+      <c r="B44" s="140" t="str">
         <f>""&amp;Deflatores!B38</f>
         <v/>
       </c>
-      <c r="C44" s="137"/>
+      <c r="C44" s="140"/>
       <c r="D44" s="29" t="str">
         <f>""&amp;Deflatores!G38</f>
         <v xml:space="preserve">           .</v>
@@ -33639,11 +33645,11 @@
     </row>
     <row r="46" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="88"/>
-      <c r="B46" s="173" t="s">
+      <c r="B46" s="170" t="s">
         <v>145</v>
       </c>
-      <c r="C46" s="173"/>
-      <c r="D46" s="173"/>
+      <c r="C46" s="170"/>
+      <c r="D46" s="170"/>
       <c r="E46" s="49" t="s">
         <v>101</v>
       </c>
@@ -33664,11 +33670,11 @@
     </row>
     <row r="47" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="88"/>
-      <c r="B47" s="137" t="str">
+      <c r="B47" s="140" t="str">
         <f>""&amp;Deflatores!B42</f>
         <v>Páginas Estáticas</v>
       </c>
-      <c r="C47" s="137"/>
+      <c r="C47" s="140"/>
       <c r="D47" s="42" t="str">
         <f>""&amp;Deflatores!G42</f>
         <v>PAG</v>
@@ -33697,11 +33703,11 @@
     </row>
     <row r="48" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="88"/>
-      <c r="B48" s="137" t="str">
+      <c r="B48" s="140" t="str">
         <f>""&amp;Deflatores!B43</f>
         <v>Manutenção Cosmética (atrelada a algo não funcional)</v>
       </c>
-      <c r="C48" s="137"/>
+      <c r="C48" s="140"/>
       <c r="D48" s="42" t="str">
         <f>""&amp;Deflatores!G43</f>
         <v>COSNF</v>
@@ -33730,11 +33736,11 @@
     </row>
     <row r="49" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A49" s="88"/>
-      <c r="B49" s="137" t="str">
+      <c r="B49" s="140" t="str">
         <f>""&amp;Deflatores!B44</f>
         <v>Dados de Código</v>
       </c>
-      <c r="C49" s="137"/>
+      <c r="C49" s="140"/>
       <c r="D49" s="42" t="str">
         <f>""&amp;Deflatores!G44</f>
         <v>DC</v>
@@ -33763,11 +33769,11 @@
     </row>
     <row r="50" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A50" s="88"/>
-      <c r="B50" s="137" t="str">
+      <c r="B50" s="140" t="str">
         <f>""&amp;Deflatores!B45</f>
         <v/>
       </c>
-      <c r="C50" s="137"/>
+      <c r="C50" s="140"/>
       <c r="D50" s="42" t="str">
         <f>""&amp;Deflatores!G45</f>
         <v xml:space="preserve">           .</v>
@@ -33796,11 +33802,11 @@
     </row>
     <row r="51" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A51" s="88"/>
-      <c r="B51" s="137" t="str">
+      <c r="B51" s="140" t="str">
         <f>""&amp;Deflatores!B46</f>
         <v/>
       </c>
-      <c r="C51" s="137"/>
+      <c r="C51" s="140"/>
       <c r="D51" s="42" t="str">
         <f>""&amp;Deflatores!G46</f>
         <v xml:space="preserve">           .</v>
@@ -33829,11 +33835,11 @@
     </row>
     <row r="52" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A52" s="88"/>
-      <c r="B52" s="137" t="str">
+      <c r="B52" s="140" t="str">
         <f>""&amp;Deflatores!B47</f>
         <v/>
       </c>
-      <c r="C52" s="137"/>
+      <c r="C52" s="140"/>
       <c r="D52" s="42" t="str">
         <f>""&amp;Deflatores!G47</f>
         <v xml:space="preserve">           .</v>
@@ -33862,11 +33868,11 @@
     </row>
     <row r="53" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A53" s="88"/>
-      <c r="B53" s="137" t="str">
+      <c r="B53" s="140" t="str">
         <f>""&amp;Deflatores!B48</f>
         <v/>
       </c>
-      <c r="C53" s="137"/>
+      <c r="C53" s="140"/>
       <c r="D53" s="42" t="str">
         <f>""&amp;Deflatores!G48</f>
         <v xml:space="preserve">           .</v>
@@ -33895,11 +33901,11 @@
     </row>
     <row r="54" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A54" s="88"/>
-      <c r="B54" s="137" t="str">
+      <c r="B54" s="140" t="str">
         <f>""&amp;Deflatores!B49</f>
         <v/>
       </c>
-      <c r="C54" s="137"/>
+      <c r="C54" s="140"/>
       <c r="D54" s="42" t="str">
         <f>""&amp;Deflatores!G49</f>
         <v xml:space="preserve">           .</v>
@@ -33928,11 +33934,11 @@
     </row>
     <row r="55" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A55" s="88"/>
-      <c r="B55" s="137" t="str">
+      <c r="B55" s="140" t="str">
         <f>""&amp;Deflatores!B50</f>
         <v/>
       </c>
-      <c r="C55" s="137"/>
+      <c r="C55" s="140"/>
       <c r="D55" s="42" t="str">
         <f>""&amp;Deflatores!G50</f>
         <v xml:space="preserve">           .</v>
@@ -33961,11 +33967,11 @@
     </row>
     <row r="56" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A56" s="88"/>
-      <c r="B56" s="137" t="str">
+      <c r="B56" s="140" t="str">
         <f>""&amp;Deflatores!B51</f>
         <v/>
       </c>
-      <c r="C56" s="137"/>
+      <c r="C56" s="140"/>
       <c r="D56" s="42" t="str">
         <f>""&amp;Deflatores!G51</f>
         <v xml:space="preserve">           .</v>
@@ -33994,11 +34000,11 @@
     </row>
     <row r="57" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A57" s="88"/>
-      <c r="B57" s="137" t="str">
+      <c r="B57" s="140" t="str">
         <f>""&amp;Deflatores!B52</f>
         <v/>
       </c>
-      <c r="C57" s="137"/>
+      <c r="C57" s="140"/>
       <c r="D57" s="42" t="str">
         <f>""&amp;Deflatores!G52</f>
         <v xml:space="preserve">           .</v>
@@ -34027,11 +34033,11 @@
     </row>
     <row r="58" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A58" s="88"/>
-      <c r="B58" s="137" t="str">
+      <c r="B58" s="140" t="str">
         <f>""&amp;Deflatores!B53</f>
         <v/>
       </c>
-      <c r="C58" s="137"/>
+      <c r="C58" s="140"/>
       <c r="D58" s="42" t="str">
         <f>""&amp;Deflatores!G53</f>
         <v xml:space="preserve">           .</v>
@@ -34060,11 +34066,11 @@
     </row>
     <row r="59" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A59" s="88"/>
-      <c r="B59" s="137" t="str">
+      <c r="B59" s="140" t="str">
         <f>""&amp;Deflatores!B54</f>
         <v/>
       </c>
-      <c r="C59" s="137"/>
+      <c r="C59" s="140"/>
       <c r="D59" s="42" t="str">
         <f>""&amp;Deflatores!G54</f>
         <v xml:space="preserve">           .</v>
@@ -34093,11 +34099,11 @@
     </row>
     <row r="60" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A60" s="88"/>
-      <c r="B60" s="137" t="str">
+      <c r="B60" s="140" t="str">
         <f>""&amp;Deflatores!B55</f>
         <v/>
       </c>
-      <c r="C60" s="137"/>
+      <c r="C60" s="140"/>
       <c r="D60" s="42" t="str">
         <f>""&amp;Deflatores!G55</f>
         <v xml:space="preserve">           .</v>
@@ -34126,11 +34132,11 @@
     </row>
     <row r="61" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A61" s="88"/>
-      <c r="B61" s="137" t="str">
+      <c r="B61" s="140" t="str">
         <f>""&amp;Deflatores!B56</f>
         <v/>
       </c>
-      <c r="C61" s="137"/>
+      <c r="C61" s="140"/>
       <c r="D61" s="42" t="str">
         <f>""&amp;Deflatores!G56</f>
         <v xml:space="preserve">           .</v>
@@ -34159,11 +34165,11 @@
     </row>
     <row r="62" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A62" s="88"/>
-      <c r="B62" s="137" t="str">
+      <c r="B62" s="140" t="str">
         <f>""&amp;Deflatores!B57</f>
         <v/>
       </c>
-      <c r="C62" s="137"/>
+      <c r="C62" s="140"/>
       <c r="D62" s="42" t="str">
         <f>""&amp;Deflatores!G57</f>
         <v xml:space="preserve">           .</v>
@@ -34192,11 +34198,11 @@
     </row>
     <row r="63" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A63" s="88"/>
-      <c r="B63" s="137" t="str">
+      <c r="B63" s="140" t="str">
         <f>""&amp;Deflatores!B58</f>
         <v/>
       </c>
-      <c r="C63" s="137"/>
+      <c r="C63" s="140"/>
       <c r="D63" s="42" t="str">
         <f>""&amp;Deflatores!G58</f>
         <v xml:space="preserve">           .</v>
@@ -34225,11 +34231,11 @@
     </row>
     <row r="64" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A64" s="88"/>
-      <c r="B64" s="137" t="str">
+      <c r="B64" s="140" t="str">
         <f>""&amp;Deflatores!B59</f>
         <v/>
       </c>
-      <c r="C64" s="137"/>
+      <c r="C64" s="140"/>
       <c r="D64" s="42" t="str">
         <f>""&amp;Deflatores!G59</f>
         <v xml:space="preserve">           .</v>
@@ -34258,11 +34264,11 @@
     </row>
     <row r="65" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A65" s="88"/>
-      <c r="B65" s="137" t="str">
+      <c r="B65" s="140" t="str">
         <f>""&amp;Deflatores!B60</f>
         <v/>
       </c>
-      <c r="C65" s="137"/>
+      <c r="C65" s="140"/>
       <c r="D65" s="42" t="str">
         <f>""&amp;Deflatores!G60</f>
         <v xml:space="preserve">           .</v>
@@ -34291,11 +34297,11 @@
     </row>
     <row r="66" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A66" s="88"/>
-      <c r="B66" s="137" t="str">
+      <c r="B66" s="140" t="str">
         <f>""&amp;Deflatores!B61</f>
         <v/>
       </c>
-      <c r="C66" s="137"/>
+      <c r="C66" s="140"/>
       <c r="D66" s="42" t="str">
         <f>""&amp;Deflatores!G61</f>
         <v xml:space="preserve">           .</v>
@@ -34324,11 +34330,11 @@
     </row>
     <row r="67" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A67" s="88"/>
-      <c r="B67" s="137" t="str">
+      <c r="B67" s="140" t="str">
         <f>""&amp;Deflatores!B62</f>
         <v/>
       </c>
-      <c r="C67" s="137"/>
+      <c r="C67" s="140"/>
       <c r="D67" s="42" t="str">
         <f>""&amp;Deflatores!G62</f>
         <v xml:space="preserve">           .</v>
@@ -34357,11 +34363,11 @@
     </row>
     <row r="68" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A68" s="88"/>
-      <c r="B68" s="137" t="str">
+      <c r="B68" s="140" t="str">
         <f>""&amp;Deflatores!B63</f>
         <v/>
       </c>
-      <c r="C68" s="137"/>
+      <c r="C68" s="140"/>
       <c r="D68" s="42" t="str">
         <f>""&amp;Deflatores!G63</f>
         <v xml:space="preserve">           .</v>
@@ -34390,11 +34396,11 @@
     </row>
     <row r="69" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A69" s="88"/>
-      <c r="B69" s="137" t="str">
+      <c r="B69" s="140" t="str">
         <f>""&amp;Deflatores!B64</f>
         <v/>
       </c>
-      <c r="C69" s="137"/>
+      <c r="C69" s="140"/>
       <c r="D69" s="42" t="str">
         <f>""&amp;Deflatores!G64</f>
         <v xml:space="preserve">           .</v>
@@ -34439,6 +34445,63 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="68">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A1:M3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:M4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:M5"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="B67:C67"/>
@@ -34450,63 +34513,6 @@
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A1:M3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:M4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:M5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.023611111111111" bottom="1.023611111111111" header="0.51180555555555551" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" scale="47" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
